--- a/Project/graphs.xlsx
+++ b/Project/graphs.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="20">
   <si>
     <t>exec time</t>
-  </si>
-  <si>
-    <t>seconds</t>
   </si>
   <si>
     <t>#Dest points</t>
@@ -51,9 +48,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>AVG</t>
-  </si>
-  <si>
     <t>Exec. Time</t>
   </si>
   <si>
@@ -69,10 +63,19 @@
     <t>CPLEX #3</t>
   </si>
   <si>
-    <t>second</t>
+    <t>Avg. Time (s)</t>
   </si>
   <si>
-    <t>Time (s)</t>
+    <t>3 seconds</t>
+  </si>
+  <si>
+    <t>30 seconds</t>
+  </si>
+  <si>
+    <t>300 seconds</t>
+  </si>
+  <si>
+    <t>900 seconds</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -143,19 +146,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -276,6 +266,144 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -289,181 +417,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -515,65 +468,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,6 +548,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>CPLEX optimal vs GRASP-BI, GRASP-FI &amp; BRKGA in 3s executions</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -613,7 +583,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$4</c:f>
+              <c:f>Hoja1!$AA$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -624,7 +594,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$H$10:$H$22</c:f>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -672,7 +642,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$10:$I$17</c:f>
+              <c:f>Hoja1!$AB$10:$AB$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -710,7 +680,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$4</c:f>
+              <c:f>Hoja1!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -721,7 +691,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$H$10:$H$22</c:f>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -769,7 +739,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$10:$J$22</c:f>
+              <c:f>Hoja1!$H$10:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -822,7 +792,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$K$4</c:f>
+              <c:f>Hoja1!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -833,7 +803,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$H$10:$H$22</c:f>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -881,7 +851,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$10:$K$22</c:f>
+              <c:f>Hoja1!$I$10:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -934,7 +904,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$L$4</c:f>
+              <c:f>Hoja1!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -945,7 +915,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$H$10:$H$22</c:f>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -993,7 +963,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$L$10:$L$22</c:f>
+              <c:f>Hoja1!$J$10:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1023,7 +993,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="240206592"/>
@@ -1042,7 +1012,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="236489728"/>
@@ -1051,7 +1021,7 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -1059,6 +1029,9 @@
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln cmpd="sng"/>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1081,6 +1054,33 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>CPLEX</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> optimal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t> vs GRASP-BI, GRASP-FI &amp; BRKGA in 30s executions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1092,7 +1092,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$27</c:f>
+              <c:f>Hoja1!$AA$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1103,7 +1103,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$H$10:$H$22</c:f>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1151,7 +1151,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$33:$I$40</c:f>
+              <c:f>Hoja1!$AB$10:$AB$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1189,7 +1189,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$27</c:f>
+              <c:f>Hoja1!$H$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1200,7 +1200,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$H$10:$H$22</c:f>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1248,7 +1248,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$33:$J$45</c:f>
+              <c:f>Hoja1!$H$33:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1301,7 +1301,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$K$27</c:f>
+              <c:f>Hoja1!$I$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1312,7 +1312,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$H$10:$H$22</c:f>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1360,7 +1360,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$33:$K$45</c:f>
+              <c:f>Hoja1!$I$33:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1413,7 +1413,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$L$27</c:f>
+              <c:f>Hoja1!$J$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1424,7 +1424,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$H$10:$H$22</c:f>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1472,7 +1472,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$L$33:$L$45</c:f>
+              <c:f>Hoja1!$J$33:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1502,7 +1502,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="268295552"/>
@@ -1521,7 +1521,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="268294016"/>
@@ -1530,7 +1530,7 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -1553,10 +1553,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1571,13 +1571,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Execution Time in</a:t>
+              <a:t>Average Execution Time in CPLEX</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> CPLEX</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1596,11 +1591,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AC$4</c:f>
+              <c:f>Hoja1!$AA$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time (s)</c:v>
+                  <c:v>Avg. Time (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1608,7 +1603,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$Y$5:$Y$20</c:f>
+              <c:f>Hoja1!$W$5:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1665,7 +1660,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AC$5:$AC$17</c:f>
+              <c:f>Hoja1!$AA$5:$AA$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1732,7 +1727,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="271672832"/>
@@ -1751,16 +1746,1013 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="271671296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1750"/>
+              <a:t>CPLEX optimal vs GRASP-BI, GRASP-FI &amp; BRKGA in 300s executions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AA$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPLEX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AB$10:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRASP-BI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$56:$H$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRASP-FI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$56:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4644</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7490</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17617</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRKGA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$56:$J$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="280745856"/>
+        <c:axId val="280747392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="280745856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="280747392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="280747392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="280745856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1750"/>
+              <a:t>CPLEX optimal vs GRASP-BI, GRASP-FI &amp; BRKGA in 900s executions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AA$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPLEX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AB$10:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRASP-BI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$79:$H$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRASP-FI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$79:$I$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRKGA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$G$10:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$79:$J$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="268868992"/>
+        <c:axId val="269451648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="268868992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="269451648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="269451648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="268868992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -1780,13 +2772,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -1810,13 +2802,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1842,13 +2834,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -1865,6 +2857,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="5 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="6 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2160,1904 +3216,2184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD68"/>
+  <dimension ref="B2:AB91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y72" sqref="Y72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="X3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="H3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="34"/>
-      <c r="Z3" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA3" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD3" s="8"/>
-    </row>
-    <row r="4" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="26">
+        <v>5</v>
+      </c>
+      <c r="C5" s="32">
+        <v>4</v>
+      </c>
+      <c r="D5" s="32">
+        <v>4</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="G5" s="30">
+        <v>5</v>
+      </c>
+      <c r="H5" s="32">
+        <v>6061</v>
+      </c>
+      <c r="I5" s="32">
+        <v>6061</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="W5" s="26">
+        <v>5</v>
+      </c>
+      <c r="X5" s="31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Y5" s="31">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AA5" s="31">
+        <f>ROUND((X5+Y5+Z5)/3,3)</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AB5" s="33">
+        <v>6061</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="C6" s="28">
         <v>2</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="D6" s="28">
+        <v>2</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="G6" s="34">
         <v>6</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="H6" s="28">
+        <v>3065</v>
+      </c>
+      <c r="I6" s="28">
+        <v>3065</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="W6" s="27">
+        <v>6</v>
+      </c>
+      <c r="X6" s="35">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Y6" s="35">
+        <v>0.109</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0.125</v>
+      </c>
+      <c r="AA6" s="35">
+        <f>ROUND((X6+Y6+Z6)/3,3)</f>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AB6" s="29">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="27">
+        <v>7</v>
+      </c>
+      <c r="C7" s="28">
         <v>2</v>
       </c>
-      <c r="Z4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="35">
-        <v>5</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37">
-        <v>4</v>
-      </c>
-      <c r="E5" s="37">
-        <v>4</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="H5" s="42">
-        <v>5</v>
-      </c>
-      <c r="I5" s="43">
-        <f>$AD5</f>
-        <v>6061</v>
-      </c>
-      <c r="J5" s="44">
-        <v>6061</v>
-      </c>
-      <c r="K5" s="44">
-        <v>6061</v>
-      </c>
-      <c r="L5" s="45"/>
-      <c r="Y5" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="17">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AA5" s="17">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="AB5" s="26">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AC5" s="17">
-        <f>ROUND((Z5+AA5+AB5)/3,3)</f>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>6061</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="39">
-        <v>6</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="40">
+      <c r="D7" s="28">
         <v>2</v>
       </c>
-      <c r="E6" s="40">
-        <v>2</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="H6" s="46">
-        <v>6</v>
-      </c>
-      <c r="I6" s="47">
-        <f>$AD6</f>
-        <v>3065</v>
-      </c>
-      <c r="J6" s="40">
-        <v>3065</v>
-      </c>
-      <c r="K6" s="40">
-        <v>3065</v>
-      </c>
-      <c r="L6" s="41"/>
-      <c r="Y6" s="14">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="19">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="AA6" s="19">
-        <v>0.109</v>
-      </c>
-      <c r="AB6" s="27">
-        <v>0.125</v>
-      </c>
-      <c r="AC6" s="19">
-        <f>ROUND((Z6+AA6+AB6)/3,3)</f>
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="AD6" s="20">
-        <v>3065</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="39">
+      <c r="E7" s="29"/>
+      <c r="G7" s="34">
         <v>7</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="40">
-        <v>2</v>
-      </c>
-      <c r="E7" s="40">
-        <v>2</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="H7" s="46">
+      <c r="H7" s="28">
+        <v>3175</v>
+      </c>
+      <c r="I7" s="28">
+        <v>3175</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="W7" s="27">
         <v>7</v>
       </c>
-      <c r="I7" s="47">
-        <f>$AD7</f>
-        <v>3175</v>
-      </c>
-      <c r="J7" s="40">
-        <v>3175</v>
-      </c>
-      <c r="K7" s="40">
-        <v>3175</v>
-      </c>
-      <c r="L7" s="41"/>
-      <c r="Y7" s="14">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="19">
+      <c r="X7" s="35">
         <f>0.219</f>
         <v>0.219</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="Y7" s="35">
         <v>0.219</v>
       </c>
-      <c r="AB7" s="27">
+      <c r="Z7" s="34">
         <v>0.20399999999999999</v>
       </c>
-      <c r="AC7" s="19">
-        <f>ROUND((Z7+AA7+AB7)/3,3)</f>
+      <c r="AA7" s="35">
+        <f>ROUND((X7+Y7+Z7)/3,3)</f>
         <v>0.214</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AB7" s="29">
         <v>3175</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="39">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="27">
         <v>8</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="40">
+      <c r="C8" s="28">
         <v>3</v>
       </c>
-      <c r="E8" s="40">
+      <c r="D8" s="28">
         <v>3</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="H8" s="46">
+      <c r="E8" s="29"/>
+      <c r="G8" s="34">
         <v>8</v>
       </c>
-      <c r="I8" s="47">
-        <f>$AD8</f>
+      <c r="H8" s="28">
         <v>4552</v>
       </c>
-      <c r="J8" s="40">
+      <c r="I8" s="28">
         <v>4552</v>
       </c>
-      <c r="K8" s="40">
+      <c r="J8" s="29"/>
+      <c r="W8" s="27">
+        <v>8</v>
+      </c>
+      <c r="X8" s="35">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="Y8" s="35">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="Z8" s="34">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AA8" s="35">
+        <f>ROUND((X8+Y8+Z8)/3,3)</f>
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="AB8" s="29">
         <v>4552</v>
       </c>
-      <c r="L8" s="41"/>
-      <c r="Y8" s="14">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="19">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="AA8" s="19">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="AB8" s="27">
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="27">
+        <v>9</v>
+      </c>
+      <c r="C9" s="28">
+        <v>2</v>
+      </c>
+      <c r="D9" s="28">
+        <v>2</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="G9" s="34">
+        <v>9</v>
+      </c>
+      <c r="H9" s="28">
+        <v>3192</v>
+      </c>
+      <c r="I9" s="28">
+        <v>3192</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="W9" s="27">
+        <v>9</v>
+      </c>
+      <c r="X9" s="35">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="Y9" s="35">
         <v>0.40600000000000003</v>
       </c>
-      <c r="AC8" s="19">
-        <f>ROUND((Z8+AA8+AB8)/3,3)</f>
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="AD8" s="20">
-        <v>4552</v>
-      </c>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="39">
-        <v>9</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="40">
-        <v>2</v>
-      </c>
-      <c r="E9" s="40">
-        <v>2</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="H9" s="46">
-        <v>9</v>
-      </c>
-      <c r="I9" s="47">
-        <f>$AD9</f>
+      <c r="Z9" s="34">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AA9" s="35">
+        <f>ROUND((X9+Y9+Z9)/3,3)</f>
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="AB9" s="29">
         <v>3192</v>
       </c>
-      <c r="J9" s="40">
-        <v>3192</v>
-      </c>
-      <c r="K9" s="40">
-        <v>3192</v>
-      </c>
-      <c r="L9" s="41"/>
-      <c r="Y9" s="14">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="19">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="AA9" s="19">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="AB9" s="27">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="AC9" s="19">
-        <f>ROUND((Z9+AA9+AB9)/3,3)</f>
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="AD9" s="20">
-        <v>3192</v>
-      </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
         <v>10</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="H10" s="27">
+      <c r="E10" s="15"/>
+      <c r="G10" s="19">
         <v>10</v>
       </c>
-      <c r="I10" s="19">
-        <f>$AD10</f>
+      <c r="H10" s="1">
         <v>4712</v>
       </c>
-      <c r="J10" s="1">
+      <c r="I10" s="1">
         <v>4712</v>
       </c>
-      <c r="K10" s="1">
-        <v>4712</v>
-      </c>
-      <c r="L10" s="20"/>
+      <c r="J10" s="15"/>
+      <c r="W10" s="11">
+        <v>10</v>
+      </c>
+      <c r="X10" s="14">
+        <v>0.42199999999999999</v>
+      </c>
       <c r="Y10" s="14">
-        <v>10</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="Z10" s="19">
         <v>0.42199999999999999</v>
       </c>
-      <c r="AA10" s="19">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="AB10" s="27">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="AC10" s="19">
-        <f>ROUND((Z10+AA10+AB10)/3,3)</f>
+      <c r="AA10" s="14">
+        <f>ROUND((X10+Y10+Z10)/3,3)</f>
         <v>0.41699999999999998</v>
       </c>
-      <c r="AD10" s="20">
+      <c r="AB10" s="15">
         <v>4712</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
         <v>11</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="15"/>
+      <c r="G11" s="19">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4619</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4619</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="W11" s="11">
+        <v>11</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="AA11" s="14">
+        <f>ROUND((X11+Y11+Z11)/3,3)</f>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="H11" s="27">
-        <v>11</v>
-      </c>
-      <c r="I11" s="19">
-        <f>$AD11</f>
-        <v>4619</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4619</v>
-      </c>
-      <c r="K11" s="1">
-        <v>4619</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="Y11" s="14">
-        <v>11</v>
-      </c>
-      <c r="Z11" s="19">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="AA11" s="19">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="AB11" s="27">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="AC11" s="19">
-        <f>ROUND((Z11+AA11+AB11)/3,3)</f>
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="AD11" s="20">
-        <v>4619</v>
-      </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
-        <v>12</v>
-      </c>
-      <c r="C12" s="24"/>
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="H12" s="27">
+      <c r="E12" s="15"/>
+      <c r="G12" s="19">
         <v>12</v>
       </c>
-      <c r="I12" s="19">
-        <f>$AD12</f>
+      <c r="H12" s="1">
         <v>4679</v>
       </c>
-      <c r="J12" s="1">
+      <c r="I12" s="1">
         <v>4679</v>
       </c>
-      <c r="K12" s="1">
-        <v>4679</v>
-      </c>
-      <c r="L12" s="20"/>
+      <c r="J12" s="15"/>
+      <c r="W12" s="11">
+        <v>12</v>
+      </c>
+      <c r="X12" s="14">
+        <v>1.6719999999999999</v>
+      </c>
       <c r="Y12" s="14">
-        <v>12</v>
+        <v>1.7030000000000001</v>
       </c>
       <c r="Z12" s="19">
         <v>1.6719999999999999</v>
       </c>
-      <c r="AA12" s="19">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="AB12" s="27">
-        <v>1.6719999999999999</v>
-      </c>
-      <c r="AC12" s="19">
-        <f>ROUND((Z12+AA12+AB12)/3,3)</f>
+      <c r="AA12" s="14">
+        <f>ROUND((X12+Y12+Z12)/3,3)</f>
         <v>1.6819999999999999</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AB12" s="15">
         <v>4679</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
         <v>13</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="E13" s="1">
-        <v>4</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="H13" s="27">
+      <c r="E13" s="15"/>
+      <c r="G13" s="19">
         <v>13</v>
       </c>
-      <c r="I13" s="19">
-        <f>$AD13</f>
+      <c r="H13" s="1">
         <v>6053</v>
       </c>
-      <c r="J13" s="1">
+      <c r="I13" s="1">
         <v>6053</v>
       </c>
-      <c r="K13" s="1">
+      <c r="J13" s="15"/>
+      <c r="W13" s="11">
+        <v>13</v>
+      </c>
+      <c r="X13" s="14">
+        <v>2.9380000000000002</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="Z13" s="19">
+        <v>2.9529999999999998</v>
+      </c>
+      <c r="AA13" s="14">
+        <f>ROUND((X13+Y13+Z13)/3,3)</f>
+        <v>2.9380000000000002</v>
+      </c>
+      <c r="AB13" s="15">
         <v>6053</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="Y13" s="14">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="19">
-        <v>2.9380000000000002</v>
-      </c>
-      <c r="AA13" s="19">
-        <v>2.9220000000000002</v>
-      </c>
-      <c r="AB13" s="27">
-        <v>2.9529999999999998</v>
-      </c>
-      <c r="AC13" s="19">
-        <f>ROUND((Z13+AA13+AB13)/3,3)</f>
-        <v>2.9380000000000002</v>
-      </c>
-      <c r="AD13" s="20">
-        <v>6053</v>
-      </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
         <v>14</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="H14" s="27">
+      <c r="E14" s="15"/>
+      <c r="G14" s="19">
         <v>14</v>
       </c>
-      <c r="I14" s="19">
-        <f>$AD14</f>
+      <c r="H14" s="1">
         <v>4656</v>
       </c>
-      <c r="J14" s="1">
+      <c r="I14" s="1">
         <v>4656</v>
       </c>
-      <c r="K14" s="1">
+      <c r="J14" s="15"/>
+      <c r="W14" s="11">
+        <v>14</v>
+      </c>
+      <c r="X14" s="14">
+        <v>3.516</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>3.5939999999999999</v>
+      </c>
+      <c r="Z14" s="19">
+        <v>3.6560000000000001</v>
+      </c>
+      <c r="AA14" s="14">
+        <f>ROUND((X14+Y14+Z14)/3,3)</f>
+        <v>3.589</v>
+      </c>
+      <c r="AB14" s="15">
         <v>4656</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="Y14" s="14">
-        <v>14</v>
-      </c>
-      <c r="Z14" s="19">
-        <v>3.516</v>
-      </c>
-      <c r="AA14" s="19">
-        <v>3.5939999999999999</v>
-      </c>
-      <c r="AB14" s="27">
-        <v>3.6560000000000001</v>
-      </c>
-      <c r="AC14" s="19">
-        <f>ROUND((Z14+AA14+AB14)/3,3)</f>
-        <v>3.589</v>
-      </c>
-      <c r="AD14" s="20">
-        <v>4656</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
         <v>15</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="H15" s="27">
+      <c r="E15" s="15"/>
+      <c r="G15" s="19">
         <v>15</v>
       </c>
-      <c r="I15" s="19">
-        <f>$AD15</f>
+      <c r="H15" s="1">
         <v>6055</v>
       </c>
-      <c r="J15" s="1">
+      <c r="I15" s="1">
         <v>6055</v>
       </c>
-      <c r="K15" s="1">
+      <c r="J15" s="15"/>
+      <c r="W15" s="11">
+        <v>15</v>
+      </c>
+      <c r="X15" s="14">
+        <v>8.4220000000000006</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>8.375</v>
+      </c>
+      <c r="Z15" s="19">
+        <v>8.3209999999999997</v>
+      </c>
+      <c r="AA15" s="14">
+        <f>ROUND((X15+Y15+Z15)/3,3)</f>
+        <v>8.3729999999999993</v>
+      </c>
+      <c r="AB15" s="15">
         <v>6055</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="Y15" s="14">
-        <v>15</v>
-      </c>
-      <c r="Z15" s="19">
-        <v>8.4220000000000006</v>
-      </c>
-      <c r="AA15" s="19">
-        <v>8.375</v>
-      </c>
-      <c r="AB15" s="27">
-        <v>8.3209999999999997</v>
-      </c>
-      <c r="AC15" s="19">
-        <f>ROUND((Z15+AA15+AB15)/3,3)</f>
-        <v>8.3729999999999993</v>
-      </c>
-      <c r="AD15" s="20">
-        <v>6055</v>
-      </c>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
         <v>16</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
       <c r="D16" s="1">
         <v>6</v>
       </c>
-      <c r="E16" s="1">
-        <v>6</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="H16" s="27">
+      <c r="E16" s="15"/>
+      <c r="G16" s="19">
         <v>16</v>
       </c>
-      <c r="I16" s="19">
-        <f>$AD16</f>
+      <c r="H16" s="1">
         <v>8865</v>
       </c>
-      <c r="J16" s="1">
+      <c r="I16" s="1">
         <v>8865</v>
       </c>
-      <c r="K16" s="1">
+      <c r="J16" s="15"/>
+      <c r="W16" s="11">
+        <v>16</v>
+      </c>
+      <c r="X16" s="14">
+        <v>670.85900000000004</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>665.93799999999999</v>
+      </c>
+      <c r="Z16" s="19">
+        <v>665.5</v>
+      </c>
+      <c r="AA16" s="14">
+        <f>ROUND((X16+Y16+Z16)/3,3)</f>
+        <v>667.43200000000002</v>
+      </c>
+      <c r="AB16" s="15">
         <v>8865</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="Y16" s="14">
-        <v>16</v>
-      </c>
-      <c r="Z16" s="19">
-        <v>670.85900000000004</v>
-      </c>
-      <c r="AA16" s="19">
-        <v>665.93799999999999</v>
-      </c>
-      <c r="AB16" s="27">
-        <v>665.5</v>
-      </c>
-      <c r="AC16" s="19">
-        <f>ROUND((Z16+AA16+AB16)/3,3)</f>
-        <v>667.43200000000002</v>
-      </c>
-      <c r="AD16" s="20">
-        <v>8865</v>
-      </c>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
         <v>17</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
       <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="15"/>
+      <c r="G17" s="19">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6060</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6060</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="W17" s="11">
+        <v>17</v>
+      </c>
+      <c r="X17">
+        <v>1607.14</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>4862.9399999999996</v>
+      </c>
+      <c r="Z17" s="19">
+        <v>3635.29</v>
+      </c>
+      <c r="AA17" s="18">
+        <f>ROUND((X17+Y17+Z17)/3,3)</f>
+        <v>3368.4569999999999</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="H17" s="27">
-        <v>17</v>
-      </c>
-      <c r="I17" s="19">
-        <f>$AD17</f>
-        <v>4620</v>
-      </c>
-      <c r="J17" s="1">
-        <v>6060</v>
-      </c>
-      <c r="K17" s="1">
-        <v>6060</v>
-      </c>
-      <c r="L17" s="20"/>
-      <c r="Y17" s="14">
-        <v>17</v>
-      </c>
-      <c r="Z17">
-        <v>1607.14</v>
-      </c>
-      <c r="AA17" s="19">
-        <v>4862.9399999999996</v>
-      </c>
-      <c r="AB17" s="27">
-        <v>3635.29</v>
-      </c>
-      <c r="AC17" s="25">
-        <f>ROUND((Z17+AA17+AB17)/3,3)</f>
-        <v>3368.4569999999999</v>
-      </c>
-      <c r="AD17" s="20">
-        <v>4620</v>
-      </c>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+      <c r="E18" s="15"/>
+      <c r="G18" s="19">
         <v>18</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="H18" s="27">
+      <c r="H18" s="1">
+        <v>7563</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6123</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="W18" s="27">
         <v>18</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="1">
-        <v>7563</v>
-      </c>
-      <c r="K18" s="1">
-        <v>6123</v>
-      </c>
-      <c r="L18" s="20"/>
-      <c r="Y18" s="14">
-        <v>18</v>
-      </c>
-      <c r="Z18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB18" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD18" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+      <c r="X18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
         <v>19</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>10</v>
+      <c r="C19" s="1">
+        <v>6</v>
       </c>
       <c r="D19" s="1">
         <v>6</v>
       </c>
-      <c r="E19" s="1">
-        <v>6</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="H19" s="27">
+      <c r="E19" s="15"/>
+      <c r="G19" s="19">
         <v>19</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="1">
+      <c r="H19" s="1">
         <v>8953</v>
       </c>
-      <c r="K19" s="1">
+      <c r="I19" s="1">
         <v>8947</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="Y19" s="14">
+      <c r="J19" s="15"/>
+      <c r="W19" s="27">
         <v>19</v>
       </c>
-      <c r="Z19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB19" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD19" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
+      <c r="X19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB19" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
         <v>20</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>10</v>
+      <c r="C20" s="1">
+        <v>5</v>
       </c>
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="H20" s="27">
+      <c r="E20" s="15"/>
+      <c r="G20" s="19">
         <v>20</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="1">
+      <c r="H20" s="1">
         <v>7490</v>
       </c>
-      <c r="K20" s="1">
+      <c r="I20" s="1">
         <v>7490</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="Y20" s="14">
+      <c r="J20" s="15"/>
+      <c r="W20" s="27">
         <v>20</v>
       </c>
-      <c r="Z20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD20" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+      <c r="X20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z20" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB20" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
         <v>50</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>10</v>
+      <c r="C21" s="1">
+        <v>12</v>
       </c>
       <c r="D21" s="1">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1">
         <v>13</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="H21" s="15">
+      <c r="E21" s="15"/>
+      <c r="G21" s="12">
         <v>50</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="1">
+      <c r="H21" s="1">
         <v>17619</v>
       </c>
-      <c r="K21" s="1">
+      <c r="I21" s="1">
         <v>19090</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="Y21" s="15">
+      <c r="J21" s="15"/>
+      <c r="W21" s="36">
         <v>50</v>
       </c>
-      <c r="Z21" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA21" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB21" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC21" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD21" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16">
+      <c r="X21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13">
         <v>100</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="16">
         <v>26</v>
       </c>
-      <c r="E22" s="1">
+      <c r="D22" s="16">
         <v>25</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="E22" s="17"/>
+      <c r="G22" s="13">
+        <v>100</v>
+      </c>
       <c r="H22" s="16">
+        <v>37787</v>
+      </c>
+      <c r="I22" s="16">
+        <v>36361</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="W22" s="37">
         <v>100</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22">
-        <v>37787</v>
-      </c>
-      <c r="K22" s="22">
-        <v>36361</v>
-      </c>
-      <c r="L22" s="23"/>
-      <c r="Y22" s="16">
-        <v>100</v>
-      </c>
-      <c r="Z22" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA22" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB22" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC22" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD22" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="X22" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA22" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB22" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="3">
-        <v>30</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="H26" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="G26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="3">
-        <v>30</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="33" t="s">
+      <c r="H26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="26">
+        <v>5</v>
+      </c>
+      <c r="C28" s="32">
+        <v>4</v>
+      </c>
+      <c r="D28" s="32">
+        <v>4</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="G28" s="26">
+        <v>5</v>
+      </c>
+      <c r="H28" s="32">
+        <v>6061</v>
+      </c>
+      <c r="I28" s="32">
+        <v>6061</v>
+      </c>
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="27">
         <v>6</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="C29" s="28">
         <v>2</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="D29" s="28">
+        <v>2</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="G29" s="27">
+        <v>6</v>
+      </c>
+      <c r="H29" s="28">
+        <v>3065</v>
+      </c>
+      <c r="I29" s="28">
+        <v>3065</v>
+      </c>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="27">
+        <v>7</v>
+      </c>
+      <c r="C30" s="28">
+        <v>2</v>
+      </c>
+      <c r="D30" s="28">
+        <v>2</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="G30" s="27">
+        <v>7</v>
+      </c>
+      <c r="H30" s="28">
+        <v>3175</v>
+      </c>
+      <c r="I30" s="28">
+        <v>3175</v>
+      </c>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B31" s="27">
+        <v>8</v>
+      </c>
+      <c r="C31" s="28">
         <v>3</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
-        <v>5</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44">
-        <v>4</v>
-      </c>
-      <c r="E28" s="44">
-        <v>4</v>
-      </c>
-      <c r="F28" s="45"/>
-      <c r="H28" s="13">
-        <v>5</v>
-      </c>
-      <c r="I28" s="43">
-        <f>$AD5</f>
-        <v>6061</v>
-      </c>
-      <c r="J28" s="44">
-        <v>6061</v>
-      </c>
-      <c r="K28" s="44">
-        <v>6061</v>
-      </c>
-      <c r="L28" s="45"/>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B29" s="14">
-        <v>6</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="40">
+      <c r="D31" s="28">
+        <v>3</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="G31" s="27">
+        <v>8</v>
+      </c>
+      <c r="H31" s="28">
+        <v>4552</v>
+      </c>
+      <c r="I31" s="28">
+        <v>4552</v>
+      </c>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32" s="27">
+        <v>9</v>
+      </c>
+      <c r="C32" s="28">
         <v>2</v>
       </c>
-      <c r="E29" s="40">
+      <c r="D32" s="28">
         <v>2</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="H29" s="14">
-        <v>6</v>
-      </c>
-      <c r="I29" s="47">
-        <f>$AD6</f>
-        <v>3065</v>
-      </c>
-      <c r="J29" s="40">
-        <v>3065</v>
-      </c>
-      <c r="K29" s="40">
-        <v>3065</v>
-      </c>
-      <c r="L29" s="41"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="14">
-        <v>7</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="40">
-        <v>2</v>
-      </c>
-      <c r="E30" s="40">
-        <v>2</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="H30" s="14">
-        <v>7</v>
-      </c>
-      <c r="I30" s="47">
-        <f>$AD7</f>
-        <v>3175</v>
-      </c>
-      <c r="J30" s="40">
-        <v>3175</v>
-      </c>
-      <c r="K30" s="40">
-        <v>3175</v>
-      </c>
-      <c r="L30" s="41"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B31" s="14">
-        <v>8</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="40">
+      <c r="E32" s="29"/>
+      <c r="G32" s="27">
+        <v>9</v>
+      </c>
+      <c r="H32" s="28">
+        <v>3192</v>
+      </c>
+      <c r="I32" s="28">
+        <v>3192</v>
+      </c>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="E31" s="40">
-        <v>3</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="H31" s="14">
-        <v>8</v>
-      </c>
-      <c r="I31" s="47">
-        <f>$AD8</f>
-        <v>4552</v>
-      </c>
-      <c r="J31" s="40">
-        <v>4552</v>
-      </c>
-      <c r="K31" s="40">
-        <v>4552</v>
-      </c>
-      <c r="L31" s="41"/>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B32" s="14">
-        <v>9</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="40">
-        <v>2</v>
-      </c>
-      <c r="E32" s="40">
-        <v>2</v>
-      </c>
-      <c r="F32" s="41"/>
-      <c r="H32" s="14">
-        <v>9</v>
-      </c>
-      <c r="I32" s="47">
-        <f>$AD9</f>
-        <v>3192</v>
-      </c>
-      <c r="J32" s="40">
-        <v>3192</v>
-      </c>
-      <c r="K32" s="40">
-        <v>3192</v>
-      </c>
-      <c r="L32" s="41"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="14">
-        <v>10</v>
-      </c>
-      <c r="C33" s="19"/>
       <c r="D33" s="1">
         <v>3</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="15"/>
+      <c r="G33" s="11">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4712</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4712</v>
+      </c>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
         <v>3</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="H33" s="14">
-        <v>10</v>
-      </c>
-      <c r="I33" s="19">
-        <f>$AD10</f>
-        <v>4712</v>
-      </c>
-      <c r="J33" s="1">
-        <v>4712</v>
-      </c>
-      <c r="K33" s="1">
-        <v>4712</v>
-      </c>
-      <c r="L33" s="20"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="14">
-        <v>11</v>
-      </c>
-      <c r="C34" s="19"/>
       <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="15"/>
+      <c r="G34" s="11">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4619</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4619</v>
+      </c>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
         <v>3</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="H34" s="14">
-        <v>11</v>
-      </c>
-      <c r="I34" s="19">
-        <f>$AD11</f>
-        <v>4619</v>
-      </c>
-      <c r="J34" s="1">
-        <v>4619</v>
-      </c>
-      <c r="K34" s="1">
-        <v>4619</v>
-      </c>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="14">
-        <v>12</v>
-      </c>
-      <c r="C35" s="19"/>
       <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="E35" s="1">
-        <v>3</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="H35" s="14">
+      <c r="E35" s="15"/>
+      <c r="G35" s="11">
         <v>12</v>
       </c>
-      <c r="I35" s="19">
-        <f>$AD12</f>
+      <c r="H35" s="1">
         <v>4679</v>
       </c>
-      <c r="J35" s="1">
+      <c r="I35" s="1">
         <v>4679</v>
       </c>
-      <c r="K35" s="1">
-        <v>4679</v>
-      </c>
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="14">
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
         <v>13</v>
       </c>
-      <c r="C36" s="19"/>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
       <c r="D36" s="1">
         <v>4</v>
       </c>
-      <c r="E36" s="1">
-        <v>4</v>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="H36" s="14">
+      <c r="E36" s="15"/>
+      <c r="G36" s="11">
         <v>13</v>
       </c>
-      <c r="I36" s="19">
-        <f>$AD13</f>
+      <c r="H36" s="1">
         <v>6053</v>
       </c>
-      <c r="J36" s="1">
+      <c r="I36" s="1">
         <v>6053</v>
       </c>
-      <c r="K36" s="1">
-        <v>6053</v>
-      </c>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="14">
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
         <v>14</v>
       </c>
-      <c r="C37" s="19"/>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
       <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="1">
-        <v>3</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="H37" s="14">
+      <c r="E37" s="15"/>
+      <c r="G37" s="11">
         <v>14</v>
       </c>
-      <c r="I37" s="19">
-        <f>$AD14</f>
+      <c r="H37" s="1">
         <v>4656</v>
       </c>
-      <c r="J37" s="1">
+      <c r="I37" s="1">
         <v>4656</v>
       </c>
-      <c r="K37" s="1">
-        <v>4656</v>
-      </c>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="14">
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
         <v>15</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
       <c r="D38" s="1">
         <v>4</v>
       </c>
-      <c r="E38" s="1">
-        <v>4</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="H38" s="14">
+      <c r="E38" s="15"/>
+      <c r="G38" s="11">
         <v>15</v>
       </c>
-      <c r="I38" s="19">
-        <f>$AD15</f>
+      <c r="H38" s="1">
         <v>6055</v>
       </c>
-      <c r="J38" s="1">
+      <c r="I38" s="1">
         <v>6055</v>
       </c>
-      <c r="K38" s="1">
-        <v>6055</v>
-      </c>
-      <c r="L38" s="20"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="14">
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
         <v>16</v>
       </c>
-      <c r="C39" s="19"/>
+      <c r="C39" s="1">
+        <v>6</v>
+      </c>
       <c r="D39" s="1">
         <v>6</v>
       </c>
-      <c r="E39" s="1">
-        <v>6</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="H39" s="14">
+      <c r="E39" s="15"/>
+      <c r="G39" s="11">
         <v>16</v>
       </c>
-      <c r="I39" s="19">
-        <f>$AD16</f>
+      <c r="H39" s="1">
         <v>8865</v>
       </c>
-      <c r="J39" s="1">
+      <c r="I39" s="1">
         <v>8865</v>
       </c>
-      <c r="K39" s="1">
-        <v>8865</v>
-      </c>
-      <c r="L39" s="20"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="14">
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
         <v>17</v>
       </c>
-      <c r="C40" s="19"/>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
       <c r="D40" s="1">
         <v>4</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="15"/>
+      <c r="G40" s="11">
+        <v>17</v>
+      </c>
+      <c r="H40" s="1">
+        <v>6060</v>
+      </c>
+      <c r="I40" s="1">
+        <v>6060</v>
+      </c>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="11">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1">
         <v>4</v>
-      </c>
-      <c r="F40" s="20"/>
-      <c r="H40" s="14">
-        <v>17</v>
-      </c>
-      <c r="I40" s="19">
-        <f>$AD17</f>
-        <v>4620</v>
-      </c>
-      <c r="J40" s="1">
-        <v>6060</v>
-      </c>
-      <c r="K40" s="1">
-        <v>6060</v>
-      </c>
-      <c r="L40" s="20"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="14">
-        <v>18</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
       </c>
-      <c r="E41" s="1">
-        <v>4</v>
-      </c>
-      <c r="F41" s="20"/>
-      <c r="H41" s="14">
+      <c r="E41" s="15"/>
+      <c r="G41" s="11">
         <v>18</v>
       </c>
-      <c r="I41" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="H41" s="1">
         <v>6123</v>
       </c>
-      <c r="K41" s="1">
+      <c r="I41" s="1">
         <v>6123</v>
       </c>
-      <c r="L41" s="20"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="14">
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="11">
         <v>19</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>10</v>
+      <c r="C42" s="1">
+        <v>6</v>
       </c>
       <c r="D42" s="1">
         <v>6</v>
       </c>
-      <c r="E42" s="1">
-        <v>6</v>
-      </c>
-      <c r="F42" s="20"/>
-      <c r="H42" s="14">
+      <c r="E42" s="15"/>
+      <c r="G42" s="11">
         <v>19</v>
       </c>
-      <c r="I42" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="H42" s="1">
         <v>8947</v>
       </c>
-      <c r="K42" s="1">
+      <c r="I42" s="1">
         <v>8947</v>
       </c>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="14">
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="11">
         <v>20</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>10</v>
+      <c r="C43" s="1">
+        <v>5</v>
       </c>
       <c r="D43" s="1">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1">
         <v>4</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="H43" s="14">
+      <c r="E43" s="15"/>
+      <c r="G43" s="11">
         <v>20</v>
       </c>
-      <c r="I43" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" s="1">
+      <c r="H43" s="1">
         <v>7490</v>
       </c>
-      <c r="K43" s="1">
+      <c r="I43" s="1">
         <v>6050</v>
       </c>
-      <c r="L43" s="20"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="15">
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="12">
         <v>50</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>10</v>
+      <c r="C44" s="1">
+        <v>12</v>
       </c>
       <c r="D44" s="1">
         <v>12</v>
       </c>
-      <c r="E44" s="1">
-        <v>12</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="H44" s="15">
+      <c r="E44" s="15"/>
+      <c r="G44" s="12">
         <v>50</v>
       </c>
-      <c r="I44" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="H44" s="1">
         <v>17629</v>
       </c>
-      <c r="K44" s="1">
+      <c r="I44" s="1">
         <v>17617</v>
       </c>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="45" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="16">
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="13">
         <v>100</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45" s="16">
         <v>27</v>
       </c>
-      <c r="E45" s="1">
+      <c r="D45" s="16">
         <v>24</v>
       </c>
-      <c r="F45" s="20"/>
+      <c r="E45" s="17"/>
+      <c r="G45" s="13">
+        <v>100</v>
+      </c>
       <c r="H45" s="16">
-        <v>100</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J45" s="1">
         <v>39245</v>
       </c>
-      <c r="K45" s="1">
+      <c r="I45" s="16">
         <v>34921</v>
       </c>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="48" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J45" s="17"/>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="3">
-        <v>300</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="34"/>
-      <c r="H49" s="2" t="s">
+      <c r="C49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="G49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I49" s="3">
-        <v>300</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K49" s="33" t="s">
+      <c r="H49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L49" s="34"/>
-    </row>
-    <row r="50" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="26">
+        <v>5</v>
+      </c>
+      <c r="C51" s="32">
+        <v>4</v>
+      </c>
+      <c r="D51" s="32">
+        <v>4</v>
+      </c>
+      <c r="E51" s="33"/>
+      <c r="G51" s="26">
+        <v>5</v>
+      </c>
+      <c r="H51" s="32">
+        <v>6061</v>
+      </c>
+      <c r="I51" s="32">
+        <v>6061</v>
+      </c>
+      <c r="J51" s="33"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="27">
         <v>6</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="C52" s="28">
         <v>2</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="D52" s="28">
+        <v>2</v>
+      </c>
+      <c r="E52" s="29"/>
+      <c r="G52" s="27">
+        <v>6</v>
+      </c>
+      <c r="H52" s="28">
+        <v>3065</v>
+      </c>
+      <c r="I52" s="28">
+        <v>3065</v>
+      </c>
+      <c r="J52" s="29"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="27">
+        <v>7</v>
+      </c>
+      <c r="C53" s="28">
+        <v>2</v>
+      </c>
+      <c r="D53" s="28">
+        <v>2</v>
+      </c>
+      <c r="E53" s="29"/>
+      <c r="G53" s="27">
+        <v>7</v>
+      </c>
+      <c r="H53" s="28">
+        <v>3175</v>
+      </c>
+      <c r="I53" s="28">
+        <v>3175</v>
+      </c>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="27">
+        <v>8</v>
+      </c>
+      <c r="C54" s="28">
         <v>3</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="D54" s="28">
+        <v>3</v>
+      </c>
+      <c r="E54" s="29"/>
+      <c r="G54" s="27">
+        <v>8</v>
+      </c>
+      <c r="H54" s="28">
+        <v>4552</v>
+      </c>
+      <c r="I54" s="28">
+        <v>4552</v>
+      </c>
+      <c r="J54" s="29"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="27">
+        <v>9</v>
+      </c>
+      <c r="C55" s="28">
+        <v>2</v>
+      </c>
+      <c r="D55" s="28">
+        <v>2</v>
+      </c>
+      <c r="E55" s="29"/>
+      <c r="G55" s="27">
+        <v>9</v>
+      </c>
+      <c r="H55" s="28">
+        <v>3192</v>
+      </c>
+      <c r="I55" s="28">
+        <v>3192</v>
+      </c>
+      <c r="J55" s="29"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="11">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="G56" s="11">
+        <v>10</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4712</v>
+      </c>
+      <c r="I56" s="1">
+        <v>4712</v>
+      </c>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="11">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="G57" s="11">
+        <v>11</v>
+      </c>
+      <c r="H57" s="1">
+        <v>4619</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4619</v>
+      </c>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="11">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="G58" s="11">
+        <v>12</v>
+      </c>
+      <c r="H58" s="1">
+        <v>4679</v>
+      </c>
+      <c r="I58" s="1">
+        <v>4679</v>
+      </c>
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="11">
+        <v>13</v>
+      </c>
+      <c r="C59" s="1">
         <v>4</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="D59" s="1">
+        <v>4</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="G59" s="11">
+        <v>13</v>
+      </c>
+      <c r="H59" s="1">
+        <v>6053</v>
+      </c>
+      <c r="I59" s="1">
+        <v>6053</v>
+      </c>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="11">
+        <v>14</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="G60" s="11">
+        <v>14</v>
+      </c>
+      <c r="H60" s="1">
+        <v>4656</v>
+      </c>
+      <c r="I60" s="1">
+        <v>4656</v>
+      </c>
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="11">
+        <v>15</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="G61" s="11">
+        <v>15</v>
+      </c>
+      <c r="H61" s="1">
+        <v>6055</v>
+      </c>
+      <c r="I61" s="1">
+        <v>6055</v>
+      </c>
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="11">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="G62" s="11">
+        <v>16</v>
+      </c>
+      <c r="H62" s="1">
+        <v>8865</v>
+      </c>
+      <c r="I62" s="1">
+        <v>8865</v>
+      </c>
+      <c r="J62" s="15"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="11">
+        <v>17</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="G63" s="11">
+        <v>17</v>
+      </c>
+      <c r="H63" s="1">
+        <v>4620</v>
+      </c>
+      <c r="I63" s="1">
+        <v>4644</v>
+      </c>
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="11">
+        <v>18</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="G64" s="11">
+        <v>18</v>
+      </c>
+      <c r="H64" s="1">
+        <v>6123</v>
+      </c>
+      <c r="I64" s="1">
+        <v>6123</v>
+      </c>
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="11">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1">
         <v>5</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="G65" s="11">
+        <v>19</v>
+      </c>
+      <c r="H65" s="1">
+        <v>7513</v>
+      </c>
+      <c r="I65" s="1">
+        <v>7507</v>
+      </c>
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="11">
+        <v>20</v>
+      </c>
+      <c r="C66" s="1">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="G66" s="11">
+        <v>20</v>
+      </c>
+      <c r="H66" s="1">
+        <v>6050</v>
+      </c>
+      <c r="I66" s="1">
+        <v>7490</v>
+      </c>
+      <c r="J66" s="15"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="12">
+        <v>50</v>
+      </c>
+      <c r="C67" s="1">
+        <v>11</v>
+      </c>
+      <c r="D67" s="1">
+        <v>12</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="G67" s="12">
+        <v>50</v>
+      </c>
+      <c r="H67" s="1">
+        <v>16177</v>
+      </c>
+      <c r="I67" s="1">
+        <v>17617</v>
+      </c>
+      <c r="J67" s="15"/>
+    </row>
+    <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="13">
+        <v>100</v>
+      </c>
+      <c r="C68" s="16">
+        <v>23</v>
+      </c>
+      <c r="D68" s="16">
+        <v>24</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="G68" s="13">
+        <v>100</v>
+      </c>
+      <c r="H68" s="16">
+        <v>33481</v>
+      </c>
+      <c r="I68" s="16">
+        <v>34907</v>
+      </c>
+      <c r="J68" s="17"/>
+    </row>
+    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="25"/>
+      <c r="G72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="13">
+      <c r="J72" s="25"/>
+    </row>
+    <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="4"/>
-      <c r="H51" s="13">
+      <c r="G73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J73" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="17">
-        <f>$AD5</f>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="26">
+        <v>5</v>
+      </c>
+      <c r="C74" s="32">
+        <v>4</v>
+      </c>
+      <c r="D74" s="32">
+        <v>4</v>
+      </c>
+      <c r="E74" s="33"/>
+      <c r="G74" s="26">
+        <v>5</v>
+      </c>
+      <c r="H74" s="32">
         <v>6061</v>
       </c>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="14">
+      <c r="I74" s="32">
+        <v>6061</v>
+      </c>
+      <c r="J74" s="33"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="27">
         <v>6</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="20"/>
-      <c r="H52" s="14">
+      <c r="C75" s="28">
+        <v>2</v>
+      </c>
+      <c r="D75" s="28">
+        <v>2</v>
+      </c>
+      <c r="E75" s="29"/>
+      <c r="G75" s="27">
         <v>6</v>
       </c>
-      <c r="I52" s="19">
-        <f>$AD6</f>
+      <c r="H75" s="28">
         <v>3065</v>
       </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="20"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="14">
+      <c r="I75" s="28">
+        <v>3065</v>
+      </c>
+      <c r="J75" s="29"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="27">
         <v>7</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="20"/>
-      <c r="H53" s="14">
+      <c r="C76" s="28">
+        <v>2</v>
+      </c>
+      <c r="D76" s="28">
+        <v>2</v>
+      </c>
+      <c r="E76" s="29"/>
+      <c r="G76" s="27">
         <v>7</v>
       </c>
-      <c r="I53" s="19">
-        <f>$AD7</f>
+      <c r="H76" s="28">
         <v>3175</v>
       </c>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="20"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="14">
+      <c r="I76" s="28">
+        <v>3175</v>
+      </c>
+      <c r="J76" s="29"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="27">
         <v>8</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="20"/>
-      <c r="H54" s="14">
+      <c r="C77" s="28">
+        <v>3</v>
+      </c>
+      <c r="D77" s="28">
+        <v>3</v>
+      </c>
+      <c r="E77" s="29"/>
+      <c r="G77" s="27">
         <v>8</v>
       </c>
-      <c r="I54" s="19">
-        <f>$AD8</f>
+      <c r="H77" s="28">
         <v>4552</v>
       </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="20"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="14">
+      <c r="I77" s="28">
+        <v>4552</v>
+      </c>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="27">
         <v>9</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="20"/>
-      <c r="H55" s="14">
+      <c r="C78" s="28">
+        <v>2</v>
+      </c>
+      <c r="D78" s="28">
+        <v>2</v>
+      </c>
+      <c r="E78" s="29"/>
+      <c r="G78" s="27">
         <v>9</v>
       </c>
-      <c r="I55" s="19">
-        <f>$AD9</f>
+      <c r="H78" s="28">
         <v>3192</v>
       </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="20"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="14">
+      <c r="I78" s="28">
+        <v>3192</v>
+      </c>
+      <c r="J78" s="29"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="11">
         <v>10</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="20"/>
-      <c r="H56" s="14">
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="G79" s="11">
         <v>10</v>
       </c>
-      <c r="I56" s="19">
-        <f>$AD10</f>
+      <c r="H79" s="1">
         <v>4712</v>
       </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="20"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="14">
+      <c r="I79" s="1">
+        <v>4712</v>
+      </c>
+      <c r="J79" s="15"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="11">
         <v>11</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="20"/>
-      <c r="H57" s="14">
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="G80" s="11">
         <v>11</v>
       </c>
-      <c r="I57" s="19">
-        <f>$AD11</f>
+      <c r="H80" s="1">
         <v>4619</v>
       </c>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="20"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="14">
+      <c r="I80" s="1">
+        <v>4619</v>
+      </c>
+      <c r="J80" s="15"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="11">
         <v>12</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="20"/>
-      <c r="H58" s="14">
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="G81" s="11">
         <v>12</v>
       </c>
-      <c r="I58" s="19">
-        <f>$AD12</f>
+      <c r="H81" s="1">
         <v>4679</v>
       </c>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="20"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="14">
+      <c r="I81" s="1">
+        <v>4679</v>
+      </c>
+      <c r="J81" s="15"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="11">
         <v>13</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="20"/>
-      <c r="H59" s="14">
+      <c r="C82" s="1">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>4</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="G82" s="11">
         <v>13</v>
       </c>
-      <c r="I59" s="19">
-        <f>$AD13</f>
+      <c r="H82" s="1">
         <v>6053</v>
       </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="20"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="14">
+      <c r="I82" s="1">
+        <v>6053</v>
+      </c>
+      <c r="J82" s="15"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="11">
         <v>14</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="20"/>
-      <c r="H60" s="14">
+      <c r="C83" s="1">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="G83" s="11">
         <v>14</v>
       </c>
-      <c r="I60" s="19">
-        <f>$AD14</f>
+      <c r="H83" s="1">
         <v>4656</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="20"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="14">
+      <c r="I83" s="1">
+        <v>4656</v>
+      </c>
+      <c r="J83" s="15"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="11">
         <v>15</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="20"/>
-      <c r="H61" s="14">
+      <c r="C84" s="1">
+        <v>4</v>
+      </c>
+      <c r="D84" s="1">
+        <v>4</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="G84" s="11">
         <v>15</v>
       </c>
-      <c r="I61" s="19">
-        <f>$AD15</f>
+      <c r="H84" s="1">
         <v>6055</v>
       </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="20"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="14">
+      <c r="I84" s="1">
+        <v>6055</v>
+      </c>
+      <c r="J84" s="15"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="11">
         <v>16</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="20"/>
-      <c r="H62" s="14">
+      <c r="C85" s="1">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1">
+        <v>6</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="G85" s="11">
         <v>16</v>
       </c>
-      <c r="I62" s="19">
-        <f>$AD16</f>
+      <c r="H85" s="1">
         <v>8865</v>
       </c>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="20"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="14">
+      <c r="I85" s="1">
+        <v>8865</v>
+      </c>
+      <c r="J85" s="15"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="11">
         <v>17</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="20"/>
-      <c r="H63" s="14">
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="G86" s="11">
         <v>17</v>
       </c>
-      <c r="I63" s="19">
-        <f>$AD17</f>
+      <c r="H86" s="1">
         <v>4620</v>
       </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="20"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="14">
+      <c r="I86" s="1">
+        <v>4620</v>
+      </c>
+      <c r="J86" s="15"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="11">
         <v>18</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="20"/>
-      <c r="H64" s="14">
+      <c r="C87" s="1">
+        <v>4</v>
+      </c>
+      <c r="D87" s="1">
+        <v>4</v>
+      </c>
+      <c r="E87" s="15"/>
+      <c r="G87" s="11">
         <v>18</v>
       </c>
-      <c r="I64" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="20"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="14">
+      <c r="H87" s="1">
+        <v>6123</v>
+      </c>
+      <c r="I87" s="1">
+        <v>6123</v>
+      </c>
+      <c r="J87" s="15"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="11">
         <v>19</v>
       </c>
-      <c r="C65" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="20"/>
-      <c r="H65" s="14">
+      <c r="C88" s="1">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1">
+        <v>5</v>
+      </c>
+      <c r="E88" s="15"/>
+      <c r="G88" s="11">
         <v>19</v>
       </c>
-      <c r="I65" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="20"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="14">
+      <c r="H88" s="1">
+        <v>7507</v>
+      </c>
+      <c r="I88" s="1">
+        <v>7507</v>
+      </c>
+      <c r="J88" s="15"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="11">
         <v>20</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="20"/>
-      <c r="H66" s="14">
+      <c r="C89" s="1">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="15"/>
+      <c r="G89" s="11">
         <v>20</v>
       </c>
-      <c r="I66" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="20"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="15">
+      <c r="H89" s="1">
+        <v>6050</v>
+      </c>
+      <c r="I89" s="1">
+        <v>6050</v>
+      </c>
+      <c r="J89" s="15"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="12">
         <v>50</v>
       </c>
-      <c r="C67" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="20"/>
-      <c r="H67" s="15">
+      <c r="C90" s="1">
+        <v>11</v>
+      </c>
+      <c r="D90" s="1">
+        <v>11</v>
+      </c>
+      <c r="E90" s="15"/>
+      <c r="G90" s="12">
         <v>50</v>
       </c>
-      <c r="I67" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="20"/>
-    </row>
-    <row r="68" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="16">
+      <c r="H90" s="1">
+        <v>16210</v>
+      </c>
+      <c r="I90" s="1">
+        <v>16198</v>
+      </c>
+      <c r="J90" s="15"/>
+    </row>
+    <row r="91" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="13">
         <v>100</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="20"/>
-      <c r="H68" s="16">
+      <c r="C91" s="16">
+        <v>24</v>
+      </c>
+      <c r="D91" s="16">
+        <v>24</v>
+      </c>
+      <c r="E91" s="17"/>
+      <c r="G91" s="13">
         <v>100</v>
       </c>
-      <c r="I68" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="20"/>
+      <c r="H91" s="16">
+        <v>34907</v>
+      </c>
+      <c r="I91" s="16">
+        <v>34907</v>
+      </c>
+      <c r="J91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
+  <mergeCells count="9">
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Project/graphs.xlsx
+++ b/Project/graphs.xlsx
@@ -13,6 +13,41 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eloy Gil Guerrero</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eloy Gil Guerrero:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not used.
+The way I've been measuring the time, checking every iteration, makes difficult to know the real execution time so it is an approximation, because I never break during an iteration, and there are some huge ones.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +148,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -476,9 +524,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -493,16 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -520,6 +556,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +589,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="126"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="26"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -558,14 +606,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-ES" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="es-ES"/>
               <a:t>CPLEX optimal vs GRASP-BI, GRASP-FI &amp; BRKGA in 3s executions</a:t>
             </a:r>
-            <a:endParaRPr lang="es-ES">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -575,8 +618,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -592,6 +636,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -673,7 +718,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -689,6 +733,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -785,7 +830,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -801,6 +845,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -897,7 +942,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -913,6 +957,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -967,10 +1012,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6060</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7563</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7490</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11890</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -980,13 +1063,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="236489728"/>
-        <c:axId val="240206592"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="200740224"/>
+        <c:axId val="200750208"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="236489728"/>
+        <c:axId val="200740224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +1078,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240206592"/>
+        <c:crossAx val="200750208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1004,7 +1086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240206592"/>
+        <c:axId val="200750208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1097,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236489728"/>
+        <c:crossAx val="200740224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1029,9 +1111,6 @@
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:ln cmpd="sng"/>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1047,10 +1126,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="126"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="26"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1065,15 +1144,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>CPLEX</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> optimal</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t> vs GRASP-BI, GRASP-FI &amp; BRKGA in 30s executions</a:t>
+              <a:t>CPLEX optimal vs GRASP-BI, GRASP-FI &amp; BRKGA in 30s executions</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1084,8 +1155,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1101,6 +1173,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -1182,7 +1255,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1198,6 +1270,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -1294,7 +1367,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1310,6 +1382,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -1406,7 +1479,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1422,6 +1494,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -1476,10 +1549,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11890</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1489,13 +1600,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="268294016"/>
-        <c:axId val="268295552"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="200794112"/>
+        <c:axId val="200795648"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="268294016"/>
+        <c:axId val="200794112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1615,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268295552"/>
+        <c:crossAx val="200795648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1513,7 +1623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268295552"/>
+        <c:axId val="200795648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1634,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268294016"/>
+        <c:crossAx val="200794112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1553,10 +1663,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
+      <c14:style val="127"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="3"/>
+      <c:style val="27"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1716,11 +1826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="271671296"/>
-        <c:axId val="271672832"/>
+        <c:axId val="201090560"/>
+        <c:axId val="201092096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271671296"/>
+        <c:axId val="201090560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1730,7 +1840,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="271672832"/>
+        <c:crossAx val="201092096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1738,7 +1848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271672832"/>
+        <c:axId val="201092096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,7 +1859,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="271671296"/>
+        <c:crossAx val="201090560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1779,10 +1889,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="126"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="26"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1793,7 +1903,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1750"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES" sz="1750"/>
@@ -1808,8 +1918,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1825,6 +1936,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -1906,7 +2018,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1922,6 +2033,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -2018,7 +2130,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2034,6 +2145,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -2130,7 +2242,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2146,6 +2257,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -2200,10 +2312,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10482</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2213,13 +2363,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="280745856"/>
-        <c:axId val="280747392"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="201128576"/>
+        <c:axId val="201130368"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="280745856"/>
+        <c:axId val="201128576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2378,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280747392"/>
+        <c:crossAx val="201130368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2237,7 +2386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280747392"/>
+        <c:axId val="201130368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2397,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280745856"/>
+        <c:crossAx val="201128576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2277,10 +2426,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="126"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="26"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2306,8 +2455,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2323,6 +2473,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -2404,7 +2555,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2420,6 +2570,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -2516,7 +2667,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2532,6 +2682,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -2628,7 +2779,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2644,6 +2794,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$G$10:$G$22</c:f>
@@ -2698,10 +2849,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10444</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2711,13 +2900,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="268868992"/>
-        <c:axId val="269451648"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="201163136"/>
+        <c:axId val="201164672"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="268868992"/>
+        <c:axId val="201163136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,7 +2915,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269451648"/>
+        <c:crossAx val="201164672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2735,7 +2923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269451648"/>
+        <c:axId val="201164672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2746,7 +2934,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268868992"/>
+        <c:crossAx val="201163136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3215,16 +3403,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y72" sqref="Y72"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -3242,33 +3431,33 @@
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="40"/>
       <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="X3" s="23" t="s">
+      <c r="J3" s="40"/>
+      <c r="X3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AB3" s="7"/>
+      <c r="AB3" s="38"/>
     </row>
     <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -3286,242 +3475,262 @@
       <c r="G4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="26">
+      <c r="B5" s="22">
         <v>5</v>
       </c>
-      <c r="C5" s="32">
-        <v>4</v>
-      </c>
-      <c r="D5" s="32">
-        <v>4</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="G5" s="30">
+      <c r="C5" s="28">
+        <v>4</v>
+      </c>
+      <c r="D5" s="28">
+        <v>4</v>
+      </c>
+      <c r="E5" s="29">
+        <v>4</v>
+      </c>
+      <c r="G5" s="26">
         <v>5</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="28">
         <v>6061</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="28">
         <v>6061</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="W5" s="26">
+      <c r="J5" s="29">
+        <v>6061</v>
+      </c>
+      <c r="W5" s="22">
         <v>5</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="27">
         <v>1.6E-2</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Y5" s="27">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="26">
         <v>1.6E-2</v>
       </c>
-      <c r="AA5" s="31">
-        <f>ROUND((X5+Y5+Z5)/3,3)</f>
+      <c r="AA5" s="27">
+        <f t="shared" ref="AA5:AA17" si="0">ROUND((X5+Y5+Z5)/3,3)</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AB5" s="33">
+      <c r="AB5" s="29">
         <v>6061</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="27">
+      <c r="B6" s="23">
         <v>6</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <v>2</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="24">
         <v>2</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="G6" s="34">
+      <c r="E6" s="25">
+        <v>2</v>
+      </c>
+      <c r="G6" s="30">
         <v>6</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="24">
         <v>3065</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="24">
         <v>3065</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="W6" s="27">
+      <c r="J6" s="25">
+        <v>3065</v>
+      </c>
+      <c r="W6" s="23">
         <v>6</v>
       </c>
-      <c r="X6" s="35">
+      <c r="X6" s="31">
         <v>0.26500000000000001</v>
       </c>
-      <c r="Y6" s="35">
+      <c r="Y6" s="31">
         <v>0.109</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6" s="30">
         <v>0.125</v>
       </c>
-      <c r="AA6" s="35">
-        <f>ROUND((X6+Y6+Z6)/3,3)</f>
+      <c r="AA6" s="31">
+        <f t="shared" si="0"/>
         <v>0.16600000000000001</v>
       </c>
-      <c r="AB6" s="29">
+      <c r="AB6" s="25">
         <v>3065</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="27">
+      <c r="B7" s="23">
         <v>7</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="24">
         <v>2</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="24">
         <v>2</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="G7" s="34">
+      <c r="E7" s="25">
+        <v>2</v>
+      </c>
+      <c r="G7" s="30">
         <v>7</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="24">
         <v>3175</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="24">
         <v>3175</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="W7" s="27">
+      <c r="J7" s="25">
+        <v>3175</v>
+      </c>
+      <c r="W7" s="23">
         <v>7</v>
       </c>
-      <c r="X7" s="35">
+      <c r="X7" s="31">
         <f>0.219</f>
         <v>0.219</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7" s="31">
         <v>0.219</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7" s="30">
         <v>0.20399999999999999</v>
       </c>
-      <c r="AA7" s="35">
-        <f>ROUND((X7+Y7+Z7)/3,3)</f>
+      <c r="AA7" s="31">
+        <f t="shared" si="0"/>
         <v>0.214</v>
       </c>
-      <c r="AB7" s="29">
+      <c r="AB7" s="25">
         <v>3175</v>
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="27">
+      <c r="B8" s="23">
         <v>8</v>
       </c>
-      <c r="C8" s="28">
-        <v>3</v>
-      </c>
-      <c r="D8" s="28">
-        <v>3</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="G8" s="34">
+      <c r="C8" s="24">
+        <v>3</v>
+      </c>
+      <c r="D8" s="24">
+        <v>3</v>
+      </c>
+      <c r="E8" s="25">
+        <v>3</v>
+      </c>
+      <c r="G8" s="30">
         <v>8</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="24">
         <v>4552</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="24">
         <v>4552</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="W8" s="27">
+      <c r="J8" s="25">
+        <v>4552</v>
+      </c>
+      <c r="W8" s="23">
         <v>8</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8" s="31">
         <v>0.38200000000000001</v>
       </c>
-      <c r="Y8" s="35">
+      <c r="Y8" s="31">
         <v>0.42199999999999999</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="Z8" s="30">
         <v>0.40600000000000003</v>
       </c>
-      <c r="AA8" s="35">
-        <f>ROUND((X8+Y8+Z8)/3,3)</f>
+      <c r="AA8" s="31">
+        <f t="shared" si="0"/>
         <v>0.40300000000000002</v>
       </c>
-      <c r="AB8" s="29">
+      <c r="AB8" s="25">
         <v>4552</v>
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="27">
+      <c r="B9" s="23">
         <v>9</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="24">
         <v>2</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="24">
         <v>2</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="G9" s="34">
+      <c r="E9" s="25">
+        <v>2</v>
+      </c>
+      <c r="G9" s="30">
         <v>9</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="24">
         <v>3192</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="24">
         <v>3192</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="W9" s="27">
+      <c r="J9" s="25">
+        <v>3192</v>
+      </c>
+      <c r="W9" s="23">
         <v>9</v>
       </c>
-      <c r="X9" s="35">
+      <c r="X9" s="31">
         <v>0.39100000000000001</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="Y9" s="31">
         <v>0.40600000000000003</v>
       </c>
-      <c r="Z9" s="34">
+      <c r="Z9" s="30">
         <v>0.40600000000000003</v>
       </c>
-      <c r="AA9" s="35">
-        <f>ROUND((X9+Y9+Z9)/3,3)</f>
+      <c r="AA9" s="31">
+        <f t="shared" si="0"/>
         <v>0.40100000000000002</v>
       </c>
-      <c r="AB9" s="29">
+      <c r="AB9" s="25">
         <v>3192</v>
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>10</v>
       </c>
       <c r="C10" s="1">
@@ -3530,8 +3739,10 @@
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="G10" s="19">
+      <c r="E10" s="14">
+        <v>3</v>
+      </c>
+      <c r="G10" s="18">
         <v>10</v>
       </c>
       <c r="H10" s="1">
@@ -3540,29 +3751,31 @@
       <c r="I10" s="1">
         <v>4712</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="W10" s="11">
+      <c r="J10" s="14">
+        <v>4712</v>
+      </c>
+      <c r="W10" s="10">
         <v>10</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="13">
         <v>0.42199999999999999</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Y10" s="13">
         <v>0.40699999999999997</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="18">
         <v>0.42199999999999999</v>
       </c>
-      <c r="AA10" s="14">
-        <f>ROUND((X10+Y10+Z10)/3,3)</f>
+      <c r="AA10" s="13">
+        <f t="shared" si="0"/>
         <v>0.41699999999999998</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="AB10" s="14">
         <v>4712</v>
       </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>11</v>
       </c>
       <c r="C11" s="1">
@@ -3571,8 +3784,10 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="G11" s="19">
+      <c r="E11" s="14">
+        <v>3</v>
+      </c>
+      <c r="G11" s="18">
         <v>11</v>
       </c>
       <c r="H11" s="1">
@@ -3581,29 +3796,31 @@
       <c r="I11" s="1">
         <v>4619</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="W11" s="11">
+      <c r="J11" s="14">
+        <v>4619</v>
+      </c>
+      <c r="W11" s="10">
         <v>11</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="13">
         <v>0.70299999999999996</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="13">
         <v>0.70399999999999996</v>
       </c>
-      <c r="Z11" s="19">
+      <c r="Z11" s="18">
         <v>0.71899999999999997</v>
       </c>
-      <c r="AA11" s="14">
-        <f>ROUND((X11+Y11+Z11)/3,3)</f>
+      <c r="AA11" s="13">
+        <f t="shared" si="0"/>
         <v>0.70899999999999996</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AB11" s="14">
         <v>4619</v>
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>12</v>
       </c>
       <c r="C12" s="1">
@@ -3612,8 +3829,10 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="G12" s="19">
+      <c r="E12" s="14">
+        <v>3</v>
+      </c>
+      <c r="G12" s="18">
         <v>12</v>
       </c>
       <c r="H12" s="1">
@@ -3622,29 +3841,31 @@
       <c r="I12" s="1">
         <v>4679</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="W12" s="11">
+      <c r="J12" s="14">
+        <v>4679</v>
+      </c>
+      <c r="W12" s="10">
         <v>12</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="13">
         <v>1.6719999999999999</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="Y12" s="13">
         <v>1.7030000000000001</v>
       </c>
-      <c r="Z12" s="19">
+      <c r="Z12" s="18">
         <v>1.6719999999999999</v>
       </c>
-      <c r="AA12" s="14">
-        <f>ROUND((X12+Y12+Z12)/3,3)</f>
+      <c r="AA12" s="13">
+        <f t="shared" si="0"/>
         <v>1.6819999999999999</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AB12" s="14">
         <v>4679</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>13</v>
       </c>
       <c r="C13" s="1">
@@ -3653,8 +3874,10 @@
       <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="G13" s="19">
+      <c r="E13" s="14">
+        <v>4</v>
+      </c>
+      <c r="G13" s="18">
         <v>13</v>
       </c>
       <c r="H13" s="1">
@@ -3663,29 +3886,31 @@
       <c r="I13" s="1">
         <v>6053</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="W13" s="11">
+      <c r="J13" s="14">
+        <v>6053</v>
+      </c>
+      <c r="W13" s="10">
         <v>13</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="13">
         <v>2.9380000000000002</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y13" s="13">
         <v>2.9220000000000002</v>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z13" s="18">
         <v>2.9529999999999998</v>
       </c>
-      <c r="AA13" s="14">
-        <f>ROUND((X13+Y13+Z13)/3,3)</f>
+      <c r="AA13" s="13">
+        <f t="shared" si="0"/>
         <v>2.9380000000000002</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AB13" s="14">
         <v>6053</v>
       </c>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>14</v>
       </c>
       <c r="C14" s="1">
@@ -3694,8 +3919,10 @@
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="G14" s="19">
+      <c r="E14" s="14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="18">
         <v>14</v>
       </c>
       <c r="H14" s="1">
@@ -3704,29 +3931,31 @@
       <c r="I14" s="1">
         <v>4656</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="W14" s="11">
+      <c r="J14" s="14">
+        <v>4656</v>
+      </c>
+      <c r="W14" s="10">
         <v>14</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14" s="13">
         <v>3.516</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Y14" s="13">
         <v>3.5939999999999999</v>
       </c>
-      <c r="Z14" s="19">
+      <c r="Z14" s="18">
         <v>3.6560000000000001</v>
       </c>
-      <c r="AA14" s="14">
-        <f>ROUND((X14+Y14+Z14)/3,3)</f>
+      <c r="AA14" s="13">
+        <f t="shared" si="0"/>
         <v>3.589</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AB14" s="14">
         <v>4656</v>
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>15</v>
       </c>
       <c r="C15" s="1">
@@ -3735,8 +3964,10 @@
       <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="G15" s="19">
+      <c r="E15" s="14">
+        <v>4</v>
+      </c>
+      <c r="G15" s="18">
         <v>15</v>
       </c>
       <c r="H15" s="1">
@@ -3745,29 +3976,31 @@
       <c r="I15" s="1">
         <v>6055</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="W15" s="11">
+      <c r="J15" s="14">
+        <v>6055</v>
+      </c>
+      <c r="W15" s="10">
         <v>15</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X15" s="13">
         <v>8.4220000000000006</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="Y15" s="13">
         <v>8.375</v>
       </c>
-      <c r="Z15" s="19">
+      <c r="Z15" s="18">
         <v>8.3209999999999997</v>
       </c>
-      <c r="AA15" s="14">
-        <f>ROUND((X15+Y15+Z15)/3,3)</f>
+      <c r="AA15" s="13">
+        <f t="shared" si="0"/>
         <v>8.3729999999999993</v>
       </c>
-      <c r="AB15" s="15">
+      <c r="AB15" s="14">
         <v>6055</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>16</v>
       </c>
       <c r="C16" s="1">
@@ -3776,8 +4009,10 @@
       <c r="D16" s="1">
         <v>6</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="G16" s="19">
+      <c r="E16" s="14">
+        <v>6</v>
+      </c>
+      <c r="G16" s="18">
         <v>16</v>
       </c>
       <c r="H16" s="1">
@@ -3786,29 +4021,31 @@
       <c r="I16" s="1">
         <v>8865</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="W16" s="11">
+      <c r="J16" s="14">
+        <v>8865</v>
+      </c>
+      <c r="W16" s="10">
         <v>16</v>
       </c>
-      <c r="X16" s="14">
+      <c r="X16" s="13">
         <v>670.85900000000004</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="Y16" s="13">
         <v>665.93799999999999</v>
       </c>
-      <c r="Z16" s="19">
+      <c r="Z16" s="18">
         <v>665.5</v>
       </c>
-      <c r="AA16" s="14">
-        <f>ROUND((X16+Y16+Z16)/3,3)</f>
+      <c r="AA16" s="13">
+        <f t="shared" si="0"/>
         <v>667.43200000000002</v>
       </c>
-      <c r="AB16" s="15">
+      <c r="AB16" s="14">
         <v>8865</v>
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>17</v>
       </c>
       <c r="C17" s="1">
@@ -3817,8 +4054,10 @@
       <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="G17" s="19">
+      <c r="E17" s="14">
+        <v>4</v>
+      </c>
+      <c r="G17" s="18">
         <v>17</v>
       </c>
       <c r="H17" s="1">
@@ -3827,29 +4066,31 @@
       <c r="I17" s="1">
         <v>6060</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="W17" s="11">
+      <c r="J17" s="14">
+        <v>6060</v>
+      </c>
+      <c r="W17" s="10">
         <v>17</v>
       </c>
       <c r="X17">
         <v>1607.14</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Y17" s="13">
         <v>4862.9399999999996</v>
       </c>
-      <c r="Z17" s="19">
+      <c r="Z17" s="18">
         <v>3635.29</v>
       </c>
-      <c r="AA17" s="18">
-        <f>ROUND((X17+Y17+Z17)/3,3)</f>
+      <c r="AA17" s="17">
+        <f t="shared" si="0"/>
         <v>3368.4569999999999</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AB17" s="14">
         <v>4620</v>
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>18</v>
       </c>
       <c r="C18" s="1">
@@ -3858,8 +4099,10 @@
       <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="G18" s="19">
+      <c r="E18" s="14">
+        <v>5</v>
+      </c>
+      <c r="G18" s="18">
         <v>18</v>
       </c>
       <c r="H18" s="1">
@@ -3868,28 +4111,30 @@
       <c r="I18" s="1">
         <v>6123</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="W18" s="27">
+      <c r="J18" s="14">
+        <v>7563</v>
+      </c>
+      <c r="W18" s="23">
         <v>18</v>
       </c>
-      <c r="X18" s="35" t="s">
+      <c r="X18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Y18" s="35" t="s">
+      <c r="Y18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Z18" s="34" t="s">
+      <c r="Z18" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AA18" s="35" t="s">
+      <c r="AA18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AB18" s="29" t="s">
+      <c r="AB18" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>19</v>
       </c>
       <c r="C19" s="1">
@@ -3898,8 +4143,10 @@
       <c r="D19" s="1">
         <v>6</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="G19" s="19">
+      <c r="E19" s="14">
+        <v>6</v>
+      </c>
+      <c r="G19" s="18">
         <v>19</v>
       </c>
       <c r="H19" s="1">
@@ -3908,28 +4155,30 @@
       <c r="I19" s="1">
         <v>8947</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="W19" s="27">
+      <c r="J19" s="14">
+        <v>8967</v>
+      </c>
+      <c r="W19" s="23">
         <v>19</v>
       </c>
-      <c r="X19" s="35" t="s">
+      <c r="X19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Y19" s="35" t="s">
+      <c r="Y19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="34" t="s">
+      <c r="Z19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AA19" s="35" t="s">
+      <c r="AA19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AB19" s="29" t="s">
+      <c r="AB19" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>20</v>
       </c>
       <c r="C20" s="1">
@@ -3938,8 +4187,10 @@
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="G20" s="19">
+      <c r="E20" s="14">
+        <v>5</v>
+      </c>
+      <c r="G20" s="18">
         <v>20</v>
       </c>
       <c r="H20" s="1">
@@ -3948,28 +4199,30 @@
       <c r="I20" s="1">
         <v>7490</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="W20" s="27">
+      <c r="J20" s="14">
+        <v>7490</v>
+      </c>
+      <c r="W20" s="23">
         <v>20</v>
       </c>
-      <c r="X20" s="35" t="s">
+      <c r="X20" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Y20" s="35" t="s">
+      <c r="Y20" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Z20" s="34" t="s">
+      <c r="Z20" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AA20" s="35" t="s">
+      <c r="AA20" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AB20" s="29" t="s">
+      <c r="AB20" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>50</v>
       </c>
       <c r="C21" s="1">
@@ -3978,8 +4231,10 @@
       <c r="D21" s="1">
         <v>13</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="G21" s="12">
+      <c r="E21" s="14">
+        <v>8</v>
+      </c>
+      <c r="G21" s="11">
         <v>50</v>
       </c>
       <c r="H21" s="1">
@@ -3988,63 +4243,69 @@
       <c r="I21" s="1">
         <v>19090</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="W21" s="36">
+      <c r="J21" s="14">
+        <v>11890</v>
+      </c>
+      <c r="W21" s="32">
         <v>50</v>
       </c>
-      <c r="X21" s="35" t="s">
+      <c r="X21" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Y21" s="35" t="s">
+      <c r="Y21" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Z21" s="34" t="s">
+      <c r="Z21" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AA21" s="35" t="s">
+      <c r="AA21" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AB21" s="29" t="s">
+      <c r="AB21" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>100</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>26</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>25</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="G22" s="13">
+      <c r="E22" s="16">
+        <v>14</v>
+      </c>
+      <c r="G22" s="12">
         <v>100</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>37787</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="15">
         <v>36361</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="W22" s="37">
+      <c r="J22" s="16">
+        <v>20522</v>
+      </c>
+      <c r="W22" s="33">
         <v>100</v>
       </c>
-      <c r="X22" s="38" t="s">
+      <c r="X22" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Y22" s="38" t="s">
+      <c r="Y22" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Z22" s="39" t="s">
+      <c r="Z22" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AA22" s="38" t="s">
+      <c r="AA22" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AB22" s="40" t="s">
+      <c r="AB22" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4056,20 +4317,20 @@
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="25"/>
+      <c r="E26" s="40"/>
       <c r="G26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="25"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
@@ -4098,117 +4359,137 @@
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B28" s="26">
+      <c r="B28" s="22">
         <v>5</v>
       </c>
-      <c r="C28" s="32">
-        <v>4</v>
-      </c>
-      <c r="D28" s="32">
-        <v>4</v>
-      </c>
-      <c r="E28" s="33"/>
-      <c r="G28" s="26">
+      <c r="C28" s="28">
+        <v>4</v>
+      </c>
+      <c r="D28" s="28">
+        <v>4</v>
+      </c>
+      <c r="E28" s="29">
+        <v>4</v>
+      </c>
+      <c r="G28" s="22">
         <v>5</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="28">
         <v>6061</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="28">
         <v>6061</v>
       </c>
-      <c r="J28" s="33"/>
+      <c r="J28" s="29">
+        <v>6061</v>
+      </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="27">
+      <c r="B29" s="23">
         <v>6</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="24">
         <v>2</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="24">
         <v>2</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="G29" s="27">
+      <c r="E29" s="25">
+        <v>2</v>
+      </c>
+      <c r="G29" s="23">
         <v>6</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="24">
         <v>3065</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="24">
         <v>3065</v>
       </c>
-      <c r="J29" s="29"/>
+      <c r="J29" s="25">
+        <v>3065</v>
+      </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30" s="27">
+      <c r="B30" s="23">
         <v>7</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="24">
         <v>2</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="24">
         <v>2</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="G30" s="27">
+      <c r="E30" s="25">
+        <v>2</v>
+      </c>
+      <c r="G30" s="23">
         <v>7</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="24">
         <v>3175</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="24">
         <v>3175</v>
       </c>
-      <c r="J30" s="29"/>
+      <c r="J30" s="25">
+        <v>3175</v>
+      </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B31" s="27">
+      <c r="B31" s="23">
         <v>8</v>
       </c>
-      <c r="C31" s="28">
-        <v>3</v>
-      </c>
-      <c r="D31" s="28">
-        <v>3</v>
-      </c>
-      <c r="E31" s="29"/>
-      <c r="G31" s="27">
+      <c r="C31" s="24">
+        <v>3</v>
+      </c>
+      <c r="D31" s="24">
+        <v>3</v>
+      </c>
+      <c r="E31" s="25">
+        <v>3</v>
+      </c>
+      <c r="G31" s="23">
         <v>8</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="24">
         <v>4552</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="24">
         <v>4552</v>
       </c>
-      <c r="J31" s="29"/>
+      <c r="J31" s="25">
+        <v>4552</v>
+      </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B32" s="27">
+      <c r="B32" s="23">
         <v>9</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="24">
         <v>2</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="24">
         <v>2</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="G32" s="27">
+      <c r="E32" s="25">
+        <v>2</v>
+      </c>
+      <c r="G32" s="23">
         <v>9</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="24">
         <v>3192</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="24">
         <v>3192</v>
       </c>
-      <c r="J32" s="29"/>
+      <c r="J32" s="25">
+        <v>3192</v>
+      </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>10</v>
       </c>
       <c r="C33" s="1">
@@ -4217,8 +4498,10 @@
       <c r="D33" s="1">
         <v>3</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="G33" s="11">
+      <c r="E33" s="14">
+        <v>3</v>
+      </c>
+      <c r="G33" s="10">
         <v>10</v>
       </c>
       <c r="H33" s="1">
@@ -4227,10 +4510,12 @@
       <c r="I33" s="1">
         <v>4712</v>
       </c>
-      <c r="J33" s="15"/>
+      <c r="J33" s="14">
+        <v>4712</v>
+      </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>11</v>
       </c>
       <c r="C34" s="1">
@@ -4239,8 +4524,10 @@
       <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="G34" s="11">
+      <c r="E34" s="14">
+        <v>3</v>
+      </c>
+      <c r="G34" s="10">
         <v>11</v>
       </c>
       <c r="H34" s="1">
@@ -4249,10 +4536,12 @@
       <c r="I34" s="1">
         <v>4619</v>
       </c>
-      <c r="J34" s="15"/>
+      <c r="J34" s="14">
+        <v>4619</v>
+      </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>12</v>
       </c>
       <c r="C35" s="1">
@@ -4261,8 +4550,10 @@
       <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="G35" s="11">
+      <c r="E35" s="14">
+        <v>3</v>
+      </c>
+      <c r="G35" s="10">
         <v>12</v>
       </c>
       <c r="H35" s="1">
@@ -4271,10 +4562,12 @@
       <c r="I35" s="1">
         <v>4679</v>
       </c>
-      <c r="J35" s="15"/>
+      <c r="J35" s="14">
+        <v>4679</v>
+      </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>13</v>
       </c>
       <c r="C36" s="1">
@@ -4283,8 +4576,10 @@
       <c r="D36" s="1">
         <v>4</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="G36" s="11">
+      <c r="E36" s="14">
+        <v>4</v>
+      </c>
+      <c r="G36" s="10">
         <v>13</v>
       </c>
       <c r="H36" s="1">
@@ -4293,10 +4588,12 @@
       <c r="I36" s="1">
         <v>6053</v>
       </c>
-      <c r="J36" s="15"/>
+      <c r="J36" s="14">
+        <v>6053</v>
+      </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>14</v>
       </c>
       <c r="C37" s="1">
@@ -4305,8 +4602,10 @@
       <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="G37" s="11">
+      <c r="E37" s="14">
+        <v>3</v>
+      </c>
+      <c r="G37" s="10">
         <v>14</v>
       </c>
       <c r="H37" s="1">
@@ -4315,10 +4614,12 @@
       <c r="I37" s="1">
         <v>4656</v>
       </c>
-      <c r="J37" s="15"/>
+      <c r="J37" s="14">
+        <v>4656</v>
+      </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>15</v>
       </c>
       <c r="C38" s="1">
@@ -4327,8 +4628,10 @@
       <c r="D38" s="1">
         <v>4</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="G38" s="11">
+      <c r="E38" s="14">
+        <v>4</v>
+      </c>
+      <c r="G38" s="10">
         <v>15</v>
       </c>
       <c r="H38" s="1">
@@ -4337,10 +4640,12 @@
       <c r="I38" s="1">
         <v>6055</v>
       </c>
-      <c r="J38" s="15"/>
+      <c r="J38" s="14">
+        <v>6055</v>
+      </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>16</v>
       </c>
       <c r="C39" s="1">
@@ -4349,8 +4654,10 @@
       <c r="D39" s="1">
         <v>6</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="G39" s="11">
+      <c r="E39" s="14">
+        <v>6</v>
+      </c>
+      <c r="G39" s="10">
         <v>16</v>
       </c>
       <c r="H39" s="1">
@@ -4359,10 +4666,12 @@
       <c r="I39" s="1">
         <v>8865</v>
       </c>
-      <c r="J39" s="15"/>
+      <c r="J39" s="14">
+        <v>8865</v>
+      </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>17</v>
       </c>
       <c r="C40" s="1">
@@ -4371,8 +4680,10 @@
       <c r="D40" s="1">
         <v>4</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="G40" s="11">
+      <c r="E40" s="14">
+        <v>3</v>
+      </c>
+      <c r="G40" s="10">
         <v>17</v>
       </c>
       <c r="H40" s="1">
@@ -4381,10 +4692,12 @@
       <c r="I40" s="1">
         <v>6060</v>
       </c>
-      <c r="J40" s="15"/>
+      <c r="J40" s="14">
+        <v>4620</v>
+      </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>18</v>
       </c>
       <c r="C41" s="1">
@@ -4393,8 +4706,10 @@
       <c r="D41" s="1">
         <v>4</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="G41" s="11">
+      <c r="E41" s="14">
+        <v>4</v>
+      </c>
+      <c r="G41" s="10">
         <v>18</v>
       </c>
       <c r="H41" s="1">
@@ -4403,10 +4718,12 @@
       <c r="I41" s="1">
         <v>6123</v>
       </c>
-      <c r="J41" s="15"/>
+      <c r="J41" s="14">
+        <v>6123</v>
+      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>19</v>
       </c>
       <c r="C42" s="1">
@@ -4415,8 +4732,10 @@
       <c r="D42" s="1">
         <v>6</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="G42" s="11">
+      <c r="E42" s="14">
+        <v>5</v>
+      </c>
+      <c r="G42" s="10">
         <v>19</v>
       </c>
       <c r="H42" s="1">
@@ -4425,10 +4744,12 @@
       <c r="I42" s="1">
         <v>8947</v>
       </c>
-      <c r="J42" s="15"/>
+      <c r="J42" s="14">
+        <v>7507</v>
+      </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>20</v>
       </c>
       <c r="C43" s="1">
@@ -4437,8 +4758,10 @@
       <c r="D43" s="1">
         <v>4</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="G43" s="11">
+      <c r="E43" s="14">
+        <v>4</v>
+      </c>
+      <c r="G43" s="10">
         <v>20</v>
       </c>
       <c r="H43" s="1">
@@ -4447,10 +4770,12 @@
       <c r="I43" s="1">
         <v>6050</v>
       </c>
-      <c r="J43" s="15"/>
+      <c r="J43" s="14">
+        <v>6050</v>
+      </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>50</v>
       </c>
       <c r="C44" s="1">
@@ -4459,8 +4784,10 @@
       <c r="D44" s="1">
         <v>12</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="G44" s="12">
+      <c r="E44" s="14">
+        <v>8</v>
+      </c>
+      <c r="G44" s="11">
         <v>50</v>
       </c>
       <c r="H44" s="1">
@@ -4469,29 +4796,35 @@
       <c r="I44" s="1">
         <v>17617</v>
       </c>
-      <c r="J44" s="15"/>
+      <c r="J44" s="14">
+        <v>11890</v>
+      </c>
     </row>
     <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>100</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="15">
         <v>27</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="15">
         <v>24</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="G45" s="13">
+      <c r="E45" s="16">
+        <v>14</v>
+      </c>
+      <c r="G45" s="12">
         <v>100</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="15">
         <v>39245</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="15">
         <v>34921</v>
       </c>
-      <c r="J45" s="17"/>
+      <c r="J45" s="16">
+        <v>20522</v>
+      </c>
     </row>
     <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -4501,20 +4834,20 @@
       <c r="C49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="25"/>
+      <c r="E49" s="40"/>
       <c r="G49" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="I49" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J49" s="25"/>
+      <c r="J49" s="40"/>
     </row>
     <row r="50" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
@@ -4543,117 +4876,137 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="26">
+      <c r="B51" s="22">
         <v>5</v>
       </c>
-      <c r="C51" s="32">
-        <v>4</v>
-      </c>
-      <c r="D51" s="32">
-        <v>4</v>
-      </c>
-      <c r="E51" s="33"/>
-      <c r="G51" s="26">
+      <c r="C51" s="28">
+        <v>4</v>
+      </c>
+      <c r="D51" s="28">
+        <v>4</v>
+      </c>
+      <c r="E51" s="29">
+        <v>4</v>
+      </c>
+      <c r="G51" s="22">
         <v>5</v>
       </c>
-      <c r="H51" s="32">
+      <c r="H51" s="28">
         <v>6061</v>
       </c>
-      <c r="I51" s="32">
+      <c r="I51" s="28">
         <v>6061</v>
       </c>
-      <c r="J51" s="33"/>
+      <c r="J51" s="29">
+        <v>6061</v>
+      </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="27">
+      <c r="B52" s="23">
         <v>6</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="24">
         <v>2</v>
       </c>
-      <c r="D52" s="28">
+      <c r="D52" s="24">
         <v>2</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="G52" s="27">
+      <c r="E52" s="25">
+        <v>2</v>
+      </c>
+      <c r="G52" s="23">
         <v>6</v>
       </c>
-      <c r="H52" s="28">
+      <c r="H52" s="24">
         <v>3065</v>
       </c>
-      <c r="I52" s="28">
+      <c r="I52" s="24">
         <v>3065</v>
       </c>
-      <c r="J52" s="29"/>
+      <c r="J52" s="25">
+        <v>3065</v>
+      </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="27">
+      <c r="B53" s="23">
         <v>7</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="24">
         <v>2</v>
       </c>
-      <c r="D53" s="28">
+      <c r="D53" s="24">
         <v>2</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="G53" s="27">
+      <c r="E53" s="25">
+        <v>2</v>
+      </c>
+      <c r="G53" s="23">
         <v>7</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="24">
         <v>3175</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="24">
         <v>3175</v>
       </c>
-      <c r="J53" s="29"/>
+      <c r="J53" s="25">
+        <v>3175</v>
+      </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="27">
+      <c r="B54" s="23">
         <v>8</v>
       </c>
-      <c r="C54" s="28">
-        <v>3</v>
-      </c>
-      <c r="D54" s="28">
-        <v>3</v>
-      </c>
-      <c r="E54" s="29"/>
-      <c r="G54" s="27">
+      <c r="C54" s="24">
+        <v>3</v>
+      </c>
+      <c r="D54" s="24">
+        <v>3</v>
+      </c>
+      <c r="E54" s="25">
+        <v>3</v>
+      </c>
+      <c r="G54" s="23">
         <v>8</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="24">
         <v>4552</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54" s="24">
         <v>4552</v>
       </c>
-      <c r="J54" s="29"/>
+      <c r="J54" s="25">
+        <v>4552</v>
+      </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="27">
+      <c r="B55" s="23">
         <v>9</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="24">
         <v>2</v>
       </c>
-      <c r="D55" s="28">
+      <c r="D55" s="24">
         <v>2</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="G55" s="27">
+      <c r="E55" s="25">
+        <v>2</v>
+      </c>
+      <c r="G55" s="23">
         <v>9</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H55" s="24">
         <v>3192</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="24">
         <v>3192</v>
       </c>
-      <c r="J55" s="29"/>
+      <c r="J55" s="25">
+        <v>3192</v>
+      </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="11">
+      <c r="B56" s="10">
         <v>10</v>
       </c>
       <c r="C56" s="1">
@@ -4662,8 +5015,10 @@
       <c r="D56" s="1">
         <v>3</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="G56" s="11">
+      <c r="E56" s="14">
+        <v>3</v>
+      </c>
+      <c r="G56" s="10">
         <v>10</v>
       </c>
       <c r="H56" s="1">
@@ -4672,10 +5027,12 @@
       <c r="I56" s="1">
         <v>4712</v>
       </c>
-      <c r="J56" s="15"/>
+      <c r="J56" s="14">
+        <v>4712</v>
+      </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>11</v>
       </c>
       <c r="C57" s="1">
@@ -4684,8 +5041,10 @@
       <c r="D57" s="1">
         <v>3</v>
       </c>
-      <c r="E57" s="15"/>
-      <c r="G57" s="11">
+      <c r="E57" s="14">
+        <v>3</v>
+      </c>
+      <c r="G57" s="10">
         <v>11</v>
       </c>
       <c r="H57" s="1">
@@ -4694,10 +5053,12 @@
       <c r="I57" s="1">
         <v>4619</v>
       </c>
-      <c r="J57" s="15"/>
+      <c r="J57" s="14">
+        <v>4619</v>
+      </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="11">
+      <c r="B58" s="10">
         <v>12</v>
       </c>
       <c r="C58" s="1">
@@ -4706,8 +5067,10 @@
       <c r="D58" s="1">
         <v>3</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="G58" s="11">
+      <c r="E58" s="14">
+        <v>3</v>
+      </c>
+      <c r="G58" s="10">
         <v>12</v>
       </c>
       <c r="H58" s="1">
@@ -4716,10 +5079,12 @@
       <c r="I58" s="1">
         <v>4679</v>
       </c>
-      <c r="J58" s="15"/>
+      <c r="J58" s="14">
+        <v>4679</v>
+      </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>13</v>
       </c>
       <c r="C59" s="1">
@@ -4728,8 +5093,10 @@
       <c r="D59" s="1">
         <v>4</v>
       </c>
-      <c r="E59" s="15"/>
-      <c r="G59" s="11">
+      <c r="E59" s="14">
+        <v>4</v>
+      </c>
+      <c r="G59" s="10">
         <v>13</v>
       </c>
       <c r="H59" s="1">
@@ -4738,10 +5105,12 @@
       <c r="I59" s="1">
         <v>6053</v>
       </c>
-      <c r="J59" s="15"/>
+      <c r="J59" s="14">
+        <v>6053</v>
+      </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>14</v>
       </c>
       <c r="C60" s="1">
@@ -4750,8 +5119,10 @@
       <c r="D60" s="1">
         <v>3</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="G60" s="11">
+      <c r="E60" s="14">
+        <v>3</v>
+      </c>
+      <c r="G60" s="10">
         <v>14</v>
       </c>
       <c r="H60" s="1">
@@ -4760,10 +5131,12 @@
       <c r="I60" s="1">
         <v>4656</v>
       </c>
-      <c r="J60" s="15"/>
+      <c r="J60" s="14">
+        <v>4656</v>
+      </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <v>15</v>
       </c>
       <c r="C61" s="1">
@@ -4772,8 +5145,10 @@
       <c r="D61" s="1">
         <v>4</v>
       </c>
-      <c r="E61" s="15"/>
-      <c r="G61" s="11">
+      <c r="E61" s="14">
+        <v>4</v>
+      </c>
+      <c r="G61" s="10">
         <v>15</v>
       </c>
       <c r="H61" s="1">
@@ -4782,10 +5157,12 @@
       <c r="I61" s="1">
         <v>6055</v>
       </c>
-      <c r="J61" s="15"/>
+      <c r="J61" s="14">
+        <v>6055</v>
+      </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="11">
+      <c r="B62" s="10">
         <v>16</v>
       </c>
       <c r="C62" s="1">
@@ -4794,8 +5171,10 @@
       <c r="D62" s="1">
         <v>6</v>
       </c>
-      <c r="E62" s="15"/>
-      <c r="G62" s="11">
+      <c r="E62" s="14">
+        <v>6</v>
+      </c>
+      <c r="G62" s="10">
         <v>16</v>
       </c>
       <c r="H62" s="1">
@@ -4804,10 +5183,12 @@
       <c r="I62" s="1">
         <v>8865</v>
       </c>
-      <c r="J62" s="15"/>
+      <c r="J62" s="14">
+        <v>8865</v>
+      </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="11">
+      <c r="B63" s="10">
         <v>17</v>
       </c>
       <c r="C63" s="1">
@@ -4816,8 +5197,10 @@
       <c r="D63" s="1">
         <v>3</v>
       </c>
-      <c r="E63" s="15"/>
-      <c r="G63" s="11">
+      <c r="E63" s="14">
+        <v>3</v>
+      </c>
+      <c r="G63" s="10">
         <v>17</v>
       </c>
       <c r="H63" s="1">
@@ -4826,10 +5209,12 @@
       <c r="I63" s="1">
         <v>4644</v>
       </c>
-      <c r="J63" s="15"/>
+      <c r="J63" s="14">
+        <v>4629</v>
+      </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="11">
+      <c r="B64" s="10">
         <v>18</v>
       </c>
       <c r="C64" s="1">
@@ -4838,8 +5223,10 @@
       <c r="D64" s="1">
         <v>4</v>
       </c>
-      <c r="E64" s="15"/>
-      <c r="G64" s="11">
+      <c r="E64" s="14">
+        <v>4</v>
+      </c>
+      <c r="G64" s="10">
         <v>18</v>
       </c>
       <c r="H64" s="1">
@@ -4848,10 +5235,12 @@
       <c r="I64" s="1">
         <v>6123</v>
       </c>
-      <c r="J64" s="15"/>
+      <c r="J64" s="14">
+        <v>6123</v>
+      </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="11">
+      <c r="B65" s="10">
         <v>19</v>
       </c>
       <c r="C65" s="1">
@@ -4860,8 +5249,10 @@
       <c r="D65" s="1">
         <v>5</v>
       </c>
-      <c r="E65" s="15"/>
-      <c r="G65" s="11">
+      <c r="E65" s="14">
+        <v>5</v>
+      </c>
+      <c r="G65" s="10">
         <v>19</v>
       </c>
       <c r="H65" s="1">
@@ -4870,10 +5261,12 @@
       <c r="I65" s="1">
         <v>7507</v>
       </c>
-      <c r="J65" s="15"/>
+      <c r="J65" s="14">
+        <v>7507</v>
+      </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="11">
+      <c r="B66" s="10">
         <v>20</v>
       </c>
       <c r="C66" s="1">
@@ -4882,8 +5275,10 @@
       <c r="D66" s="1">
         <v>5</v>
       </c>
-      <c r="E66" s="15"/>
-      <c r="G66" s="11">
+      <c r="E66" s="14">
+        <v>4</v>
+      </c>
+      <c r="G66" s="10">
         <v>20</v>
       </c>
       <c r="H66" s="1">
@@ -4892,10 +5287,12 @@
       <c r="I66" s="1">
         <v>7490</v>
       </c>
-      <c r="J66" s="15"/>
+      <c r="J66" s="14">
+        <v>6050</v>
+      </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="12">
+      <c r="B67" s="11">
         <v>50</v>
       </c>
       <c r="C67" s="1">
@@ -4904,8 +5301,10 @@
       <c r="D67" s="1">
         <v>12</v>
       </c>
-      <c r="E67" s="15"/>
-      <c r="G67" s="12">
+      <c r="E67" s="14">
+        <v>7</v>
+      </c>
+      <c r="G67" s="11">
         <v>50</v>
       </c>
       <c r="H67" s="1">
@@ -4914,29 +5313,35 @@
       <c r="I67" s="1">
         <v>17617</v>
       </c>
-      <c r="J67" s="15"/>
+      <c r="J67" s="14">
+        <v>10482</v>
+      </c>
     </row>
     <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>100</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="15">
         <v>23</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="15">
         <v>24</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="G68" s="13">
+      <c r="E68" s="16">
+        <v>14</v>
+      </c>
+      <c r="G68" s="12">
         <v>100</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H68" s="15">
         <v>33481</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I68" s="15">
         <v>34907</v>
       </c>
-      <c r="J68" s="17"/>
+      <c r="J68" s="16">
+        <v>20522</v>
+      </c>
     </row>
     <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
@@ -4946,20 +5351,20 @@
       <c r="C72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="25"/>
+      <c r="E72" s="40"/>
       <c r="G72" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I72" s="24" t="s">
+      <c r="I72" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J72" s="25"/>
+      <c r="J72" s="40"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
@@ -4988,117 +5393,137 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="26">
+      <c r="B74" s="22">
         <v>5</v>
       </c>
-      <c r="C74" s="32">
-        <v>4</v>
-      </c>
-      <c r="D74" s="32">
-        <v>4</v>
-      </c>
-      <c r="E74" s="33"/>
-      <c r="G74" s="26">
+      <c r="C74" s="28">
+        <v>4</v>
+      </c>
+      <c r="D74" s="28">
+        <v>4</v>
+      </c>
+      <c r="E74" s="29">
+        <v>4</v>
+      </c>
+      <c r="G74" s="22">
         <v>5</v>
       </c>
-      <c r="H74" s="32">
+      <c r="H74" s="28">
         <v>6061</v>
       </c>
-      <c r="I74" s="32">
+      <c r="I74" s="28">
         <v>6061</v>
       </c>
-      <c r="J74" s="33"/>
+      <c r="J74" s="29">
+        <v>6061</v>
+      </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="27">
+      <c r="B75" s="23">
         <v>6</v>
       </c>
-      <c r="C75" s="28">
+      <c r="C75" s="24">
         <v>2</v>
       </c>
-      <c r="D75" s="28">
+      <c r="D75" s="24">
         <v>2</v>
       </c>
-      <c r="E75" s="29"/>
-      <c r="G75" s="27">
+      <c r="E75" s="25">
+        <v>2</v>
+      </c>
+      <c r="G75" s="23">
         <v>6</v>
       </c>
-      <c r="H75" s="28">
+      <c r="H75" s="24">
         <v>3065</v>
       </c>
-      <c r="I75" s="28">
+      <c r="I75" s="24">
         <v>3065</v>
       </c>
-      <c r="J75" s="29"/>
+      <c r="J75" s="25">
+        <v>3065</v>
+      </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="27">
+      <c r="B76" s="23">
         <v>7</v>
       </c>
-      <c r="C76" s="28">
+      <c r="C76" s="24">
         <v>2</v>
       </c>
-      <c r="D76" s="28">
+      <c r="D76" s="24">
         <v>2</v>
       </c>
-      <c r="E76" s="29"/>
-      <c r="G76" s="27">
+      <c r="E76" s="25">
+        <v>2</v>
+      </c>
+      <c r="G76" s="23">
         <v>7</v>
       </c>
-      <c r="H76" s="28">
+      <c r="H76" s="24">
         <v>3175</v>
       </c>
-      <c r="I76" s="28">
+      <c r="I76" s="24">
         <v>3175</v>
       </c>
-      <c r="J76" s="29"/>
+      <c r="J76" s="25">
+        <v>3175</v>
+      </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="27">
+      <c r="B77" s="23">
         <v>8</v>
       </c>
-      <c r="C77" s="28">
-        <v>3</v>
-      </c>
-      <c r="D77" s="28">
-        <v>3</v>
-      </c>
-      <c r="E77" s="29"/>
-      <c r="G77" s="27">
+      <c r="C77" s="24">
+        <v>3</v>
+      </c>
+      <c r="D77" s="24">
+        <v>3</v>
+      </c>
+      <c r="E77" s="25">
+        <v>3</v>
+      </c>
+      <c r="G77" s="23">
         <v>8</v>
       </c>
-      <c r="H77" s="28">
+      <c r="H77" s="24">
         <v>4552</v>
       </c>
-      <c r="I77" s="28">
+      <c r="I77" s="24">
         <v>4552</v>
       </c>
-      <c r="J77" s="29"/>
+      <c r="J77" s="25">
+        <v>4552</v>
+      </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="27">
+      <c r="B78" s="23">
         <v>9</v>
       </c>
-      <c r="C78" s="28">
+      <c r="C78" s="24">
         <v>2</v>
       </c>
-      <c r="D78" s="28">
+      <c r="D78" s="24">
         <v>2</v>
       </c>
-      <c r="E78" s="29"/>
-      <c r="G78" s="27">
+      <c r="E78" s="25">
+        <v>2</v>
+      </c>
+      <c r="G78" s="23">
         <v>9</v>
       </c>
-      <c r="H78" s="28">
+      <c r="H78" s="24">
         <v>3192</v>
       </c>
-      <c r="I78" s="28">
+      <c r="I78" s="24">
         <v>3192</v>
       </c>
-      <c r="J78" s="29"/>
+      <c r="J78" s="25">
+        <v>3192</v>
+      </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="11">
+      <c r="B79" s="10">
         <v>10</v>
       </c>
       <c r="C79" s="1">
@@ -5107,8 +5532,10 @@
       <c r="D79" s="1">
         <v>3</v>
       </c>
-      <c r="E79" s="15"/>
-      <c r="G79" s="11">
+      <c r="E79" s="14">
+        <v>3</v>
+      </c>
+      <c r="G79" s="10">
         <v>10</v>
       </c>
       <c r="H79" s="1">
@@ -5117,10 +5544,12 @@
       <c r="I79" s="1">
         <v>4712</v>
       </c>
-      <c r="J79" s="15"/>
+      <c r="J79" s="14">
+        <v>4712</v>
+      </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="11">
+      <c r="B80" s="10">
         <v>11</v>
       </c>
       <c r="C80" s="1">
@@ -5129,8 +5558,10 @@
       <c r="D80" s="1">
         <v>3</v>
       </c>
-      <c r="E80" s="15"/>
-      <c r="G80" s="11">
+      <c r="E80" s="14">
+        <v>3</v>
+      </c>
+      <c r="G80" s="10">
         <v>11</v>
       </c>
       <c r="H80" s="1">
@@ -5139,10 +5570,12 @@
       <c r="I80" s="1">
         <v>4619</v>
       </c>
-      <c r="J80" s="15"/>
+      <c r="J80" s="14">
+        <v>4619</v>
+      </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="11">
+      <c r="B81" s="10">
         <v>12</v>
       </c>
       <c r="C81" s="1">
@@ -5151,8 +5584,10 @@
       <c r="D81" s="1">
         <v>3</v>
       </c>
-      <c r="E81" s="15"/>
-      <c r="G81" s="11">
+      <c r="E81" s="14">
+        <v>3</v>
+      </c>
+      <c r="G81" s="10">
         <v>12</v>
       </c>
       <c r="H81" s="1">
@@ -5161,10 +5596,12 @@
       <c r="I81" s="1">
         <v>4679</v>
       </c>
-      <c r="J81" s="15"/>
+      <c r="J81" s="14">
+        <v>4679</v>
+      </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="11">
+      <c r="B82" s="10">
         <v>13</v>
       </c>
       <c r="C82" s="1">
@@ -5173,8 +5610,10 @@
       <c r="D82" s="1">
         <v>4</v>
       </c>
-      <c r="E82" s="15"/>
-      <c r="G82" s="11">
+      <c r="E82" s="14">
+        <v>4</v>
+      </c>
+      <c r="G82" s="10">
         <v>13</v>
       </c>
       <c r="H82" s="1">
@@ -5183,10 +5622,12 @@
       <c r="I82" s="1">
         <v>6053</v>
       </c>
-      <c r="J82" s="15"/>
+      <c r="J82" s="14">
+        <v>6053</v>
+      </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="11">
+      <c r="B83" s="10">
         <v>14</v>
       </c>
       <c r="C83" s="1">
@@ -5195,8 +5636,10 @@
       <c r="D83" s="1">
         <v>3</v>
       </c>
-      <c r="E83" s="15"/>
-      <c r="G83" s="11">
+      <c r="E83" s="14">
+        <v>3</v>
+      </c>
+      <c r="G83" s="10">
         <v>14</v>
       </c>
       <c r="H83" s="1">
@@ -5205,10 +5648,12 @@
       <c r="I83" s="1">
         <v>4656</v>
       </c>
-      <c r="J83" s="15"/>
+      <c r="J83" s="14">
+        <v>4656</v>
+      </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="11">
+      <c r="B84" s="10">
         <v>15</v>
       </c>
       <c r="C84" s="1">
@@ -5217,8 +5662,10 @@
       <c r="D84" s="1">
         <v>4</v>
       </c>
-      <c r="E84" s="15"/>
-      <c r="G84" s="11">
+      <c r="E84" s="14">
+        <v>4</v>
+      </c>
+      <c r="G84" s="10">
         <v>15</v>
       </c>
       <c r="H84" s="1">
@@ -5227,10 +5674,12 @@
       <c r="I84" s="1">
         <v>6055</v>
       </c>
-      <c r="J84" s="15"/>
+      <c r="J84" s="14">
+        <v>6055</v>
+      </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="11">
+      <c r="B85" s="10">
         <v>16</v>
       </c>
       <c r="C85" s="1">
@@ -5239,8 +5688,10 @@
       <c r="D85" s="1">
         <v>6</v>
       </c>
-      <c r="E85" s="15"/>
-      <c r="G85" s="11">
+      <c r="E85" s="14">
+        <v>6</v>
+      </c>
+      <c r="G85" s="10">
         <v>16</v>
       </c>
       <c r="H85" s="1">
@@ -5249,10 +5700,12 @@
       <c r="I85" s="1">
         <v>8865</v>
       </c>
-      <c r="J85" s="15"/>
+      <c r="J85" s="14">
+        <v>8865</v>
+      </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="11">
+      <c r="B86" s="10">
         <v>17</v>
       </c>
       <c r="C86" s="1">
@@ -5261,8 +5714,10 @@
       <c r="D86" s="1">
         <v>3</v>
       </c>
-      <c r="E86" s="15"/>
-      <c r="G86" s="11">
+      <c r="E86" s="14">
+        <v>3</v>
+      </c>
+      <c r="G86" s="10">
         <v>17</v>
       </c>
       <c r="H86" s="1">
@@ -5271,10 +5726,12 @@
       <c r="I86" s="1">
         <v>4620</v>
       </c>
-      <c r="J86" s="15"/>
+      <c r="J86" s="14">
+        <v>4620</v>
+      </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="11">
+      <c r="B87" s="10">
         <v>18</v>
       </c>
       <c r="C87" s="1">
@@ -5283,8 +5740,10 @@
       <c r="D87" s="1">
         <v>4</v>
       </c>
-      <c r="E87" s="15"/>
-      <c r="G87" s="11">
+      <c r="E87" s="14">
+        <v>4</v>
+      </c>
+      <c r="G87" s="10">
         <v>18</v>
       </c>
       <c r="H87" s="1">
@@ -5293,10 +5752,12 @@
       <c r="I87" s="1">
         <v>6123</v>
       </c>
-      <c r="J87" s="15"/>
+      <c r="J87" s="14">
+        <v>6123</v>
+      </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="11">
+      <c r="B88" s="10">
         <v>19</v>
       </c>
       <c r="C88" s="1">
@@ -5305,8 +5766,10 @@
       <c r="D88" s="1">
         <v>5</v>
       </c>
-      <c r="E88" s="15"/>
-      <c r="G88" s="11">
+      <c r="E88" s="14">
+        <v>5</v>
+      </c>
+      <c r="G88" s="10">
         <v>19</v>
       </c>
       <c r="H88" s="1">
@@ -5315,10 +5778,12 @@
       <c r="I88" s="1">
         <v>7507</v>
       </c>
-      <c r="J88" s="15"/>
+      <c r="J88" s="14">
+        <v>7507</v>
+      </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="11">
+      <c r="B89" s="10">
         <v>20</v>
       </c>
       <c r="C89" s="1">
@@ -5327,8 +5792,10 @@
       <c r="D89" s="1">
         <v>4</v>
       </c>
-      <c r="E89" s="15"/>
-      <c r="G89" s="11">
+      <c r="E89" s="14">
+        <v>4</v>
+      </c>
+      <c r="G89" s="10">
         <v>20</v>
       </c>
       <c r="H89" s="1">
@@ -5337,10 +5804,12 @@
       <c r="I89" s="1">
         <v>6050</v>
       </c>
-      <c r="J89" s="15"/>
+      <c r="J89" s="14">
+        <v>6050</v>
+      </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="12">
+      <c r="B90" s="11">
         <v>50</v>
       </c>
       <c r="C90" s="1">
@@ -5349,8 +5818,10 @@
       <c r="D90" s="1">
         <v>11</v>
       </c>
-      <c r="E90" s="15"/>
-      <c r="G90" s="12">
+      <c r="E90" s="14">
+        <v>7</v>
+      </c>
+      <c r="G90" s="11">
         <v>50</v>
       </c>
       <c r="H90" s="1">
@@ -5359,34 +5830,38 @@
       <c r="I90" s="1">
         <v>16198</v>
       </c>
-      <c r="J90" s="15"/>
+      <c r="J90" s="14">
+        <v>10444</v>
+      </c>
     </row>
     <row r="91" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="13">
+      <c r="B91" s="12">
         <v>100</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C91" s="15">
         <v>24</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="15">
         <v>24</v>
       </c>
-      <c r="E91" s="17"/>
-      <c r="G91" s="13">
+      <c r="E91" s="16">
+        <v>14</v>
+      </c>
+      <c r="G91" s="12">
         <v>100</v>
       </c>
-      <c r="H91" s="16">
+      <c r="H91" s="15">
         <v>34907</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I91" s="15">
         <v>34907</v>
       </c>
-      <c r="J91" s="17"/>
+      <c r="J91" s="16">
+        <v>20522</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="D72:E72"/>
@@ -5394,10 +5869,13 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
